--- a/Business Directory Test Case.xlsx
+++ b/Business Directory Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wende\OneDrive\Desktop\QA Internship - Group 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDCB315-8EB7-44A4-94B9-CF9C14892C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65102F2E-26CD-4FC0-8C5B-E5907C3B49FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="404">
   <si>
     <t>Project Name</t>
   </si>
@@ -1422,6 +1422,79 @@
       </rPr>
       <t xml:space="preserve"> to increase the qty of the item </t>
     </r>
+  </si>
+  <si>
+    <t>Business Owner is logged in to system</t>
+  </si>
+  <si>
+    <t>Maximum of 10 Businesses/Companies are displayed per page
+The page number is correctly displayed in the page bar at the upper and bottom right corner</t>
+  </si>
+  <si>
+    <t>Previous page is displayed with correct page number in the page bar both at the upper and bottom right corner</t>
+  </si>
+  <si>
+    <t>Maximum of 10 Businesses/Companies is displayed per page
+The page number is correctly displayed in the page bar at the upper and bottom right corner</t>
+  </si>
+  <si>
+    <t>Remaining companies are displayed on the next page when &gt; is clicked whether at the upper or bottom right corner beside the page bar
+The page number is correctly displayed in the page bar at the upper and bottom right corner</t>
+  </si>
+  <si>
+    <t>Error message  be displayed</t>
+  </si>
+  <si>
+    <t>User  see an error message indicating that the passwords do not match.</t>
+  </si>
+  <si>
+    <t>System  displayed login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message  displayed </t>
+  </si>
+  <si>
+    <t>System  displayeded login page</t>
+  </si>
+  <si>
+    <t>Error message  displayed that username is required</t>
+  </si>
+  <si>
+    <t>Error message  displayed that password is required</t>
+  </si>
+  <si>
+    <t>Sign Up page is displayeded</t>
+  </si>
+  <si>
+    <t>Error message  displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot your Password? page  is displayed </t>
+  </si>
+  <si>
+    <t>Message is displayed on screen regarding Reset password.  
+Reset password email is sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot your Password? page is displayed </t>
+  </si>
+  <si>
+    <t>User was able to find the email to reset password</t>
+  </si>
+  <si>
+    <t>Business Owner was able to sign up  successfully and redirected to the Business dashboard</t>
+  </si>
+  <si>
+    <t>Business Owner  was able to sign up  successfully and redirected to the Business dashboard</t>
+  </si>
+  <si>
+    <t>Incorrrect details displayed</t>
+  </si>
+  <si>
+    <t>Checkout button is disabled</t>
+  </si>
+  <si>
+    <t>System navigated back to Business Owner homepage</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1955,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2023,7 +2096,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2092,50 +2164,40 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,10 +2244,47 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2194,24 +2293,55 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2220,77 +2350,33 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2298,35 +2384,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2636,9 +2716,9 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2655,72 +2735,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="109"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="110">
+      <c r="H1" s="105">
         <v>45590</v>
       </c>
-      <c r="I1" s="111"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="117"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="100" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2743,16 +2823,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2775,16 +2855,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2875,7 +2955,9 @@
       <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="33" t="s">
         <v>349</v>
       </c>
@@ -2896,117 +2978,131 @@
       <c r="F10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="86" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="85" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="H11" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="86"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="12" t="s">
+        <v>347</v>
+      </c>
       <c r="H12" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="86"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="H13" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="91" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="84" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="47"/>
+      <c r="G14" s="46" t="s">
+        <v>384</v>
+      </c>
       <c r="H14" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="91"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="51" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="46" t="s">
+        <v>385</v>
+      </c>
       <c r="H15" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="91"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="51" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="46" t="s">
+        <v>383</v>
+      </c>
       <c r="H16" s="48" t="s">
         <v>349</v>
       </c>
@@ -3029,7 +3125,9 @@
       <c r="F17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H17" s="33" t="s">
         <v>349</v>
       </c>
@@ -3052,7 +3150,9 @@
       <c r="F18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="H18" s="48" t="s">
         <v>349</v>
       </c>
@@ -3075,7 +3175,9 @@
       <c r="F19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="33" t="s">
         <v>349</v>
       </c>
@@ -3098,23 +3200,25 @@
       <c r="F20" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="46" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="85" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="25" t="s">
@@ -3123,40 +3227,44 @@
       <c r="F21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="H21" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="86"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="20" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H22" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="84" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="51" t="s">
@@ -3165,38 +3273,42 @@
       <c r="F23" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="H23" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="93"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="91"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="H24" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="312" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="86" t="s">
+      <c r="C25" s="90"/>
+      <c r="D25" s="85" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="25" t="s">
@@ -3214,31 +3326,33 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="98"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="86"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="H26" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="91" t="s">
+      <c r="C27" s="89"/>
+      <c r="D27" s="84" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="51" t="s">
@@ -3256,31 +3370,33 @@
       <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="91"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="51" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="47"/>
+      <c r="G28" s="43" t="s">
+        <v>58</v>
+      </c>
       <c r="H28" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="86" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="85" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="25" t="s">
@@ -3289,59 +3405,65 @@
       <c r="F29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="H29" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="84"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="86"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="H30" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
-      <c r="B31" s="84"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="86"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="25" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="H31" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="83" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="47"/>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="84" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="51" t="s">
@@ -3350,61 +3472,67 @@
       <c r="F32" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="H32" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="91"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="51" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="51" t="s">
+        <v>62</v>
+      </c>
       <c r="H33" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="91"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="51" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="47"/>
+      <c r="G34" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H34" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="86" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="85" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="25" t="s">
@@ -3413,118 +3541,130 @@
       <c r="F35" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="H35" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="86"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="H36" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="84"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="86"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="H37" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="84"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="86"/>
+      <c r="D38" s="85"/>
       <c r="E38" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="H38" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="84"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="86"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="H39" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="84"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="86"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="H40" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="83" t="s">
         <v>73</v>
       </c>
       <c r="C41" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="91" t="s">
+      <c r="D41" s="84" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="51" t="s">
@@ -3533,118 +3673,130 @@
       <c r="F41" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="47"/>
+      <c r="G41" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="H41" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="89"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="91"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="47"/>
+      <c r="G42" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="H42" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I42" s="49"/>
     </row>
     <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="89"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="91"/>
+      <c r="D43" s="84"/>
       <c r="E43" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="47"/>
+      <c r="G43" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="H43" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I43" s="49"/>
     </row>
     <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="87"/>
-      <c r="B44" s="89"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="91"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="H44" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I44" s="49"/>
     </row>
     <row r="45" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
-      <c r="B45" s="89"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="91"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="47"/>
+      <c r="G45" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="H45" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I45" s="49"/>
     </row>
     <row r="46" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
-      <c r="B46" s="89"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="91"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F46" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="47"/>
+      <c r="G46" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="H46" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I46" s="49"/>
     </row>
     <row r="47" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="97" t="s">
+      <c r="C47" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="D47" s="85" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="25" t="s">
@@ -3653,40 +3805,44 @@
       <c r="F47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="H47" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="98"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="86"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="25" t="s">
         <v>98</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H48" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="91" t="s">
+      <c r="D49" s="84" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="51" t="s">
@@ -3695,40 +3851,44 @@
       <c r="F49" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="47"/>
+      <c r="G49" s="46" t="s">
+        <v>97</v>
+      </c>
       <c r="H49" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I49" s="49"/>
     </row>
     <row r="50" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="93"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="91"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="84"/>
       <c r="E50" s="51" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="47"/>
+      <c r="G50" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="H50" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I50" s="49"/>
     </row>
     <row r="51" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="86" t="s">
+      <c r="D51" s="85" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="25" t="s">
@@ -3737,76 +3897,84 @@
       <c r="F51" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="H51" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="98"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="96"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="25" t="s">
         <v>98</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="H52" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="98"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="97" t="s">
+      <c r="A53" s="91"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="96"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="25" t="s">
         <v>96</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="H53" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="98"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="96"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="90"/>
       <c r="E54" s="25" t="s">
         <v>98</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="H54" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="94" t="s">
+      <c r="C55" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="91" t="s">
+      <c r="D55" s="84" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="51" t="s">
@@ -3815,74 +3983,82 @@
       <c r="F55" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="47"/>
+      <c r="G55" s="46" t="s">
+        <v>97</v>
+      </c>
       <c r="H55" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I55" s="49"/>
     </row>
     <row r="56" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="93"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="95"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="89"/>
       <c r="E56" s="51" t="s">
         <v>98</v>
       </c>
       <c r="F56" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="47"/>
+      <c r="G56" s="46" t="s">
+        <v>103</v>
+      </c>
       <c r="H56" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I56" s="49"/>
     </row>
     <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="93"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="94" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="95"/>
+      <c r="D57" s="89"/>
       <c r="E57" s="51" t="s">
         <v>96</v>
       </c>
       <c r="F57" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="47"/>
+      <c r="G57" s="46" t="s">
+        <v>97</v>
+      </c>
       <c r="H57" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I57" s="49"/>
     </row>
     <row r="58" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="93"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="89"/>
       <c r="E58" s="51" t="s">
         <v>98</v>
       </c>
       <c r="F58" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="47"/>
+      <c r="G58" s="46" t="s">
+        <v>103</v>
+      </c>
       <c r="H58" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I58" s="49"/>
     </row>
     <row r="59" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86" t="s">
+      <c r="C59" s="85"/>
+      <c r="D59" s="85" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="25" t="s">
@@ -3891,174 +4067,194 @@
       <c r="F59" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="H59" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="H60" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
       <c r="E61" s="25" t="s">
         <v>122</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="H61" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="85"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
       <c r="E62" s="25" t="s">
         <v>114</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="H62" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="85"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
       <c r="E63" s="25" t="s">
         <v>125</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="H63" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="85"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
       <c r="E64" s="25" t="s">
         <v>126</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="H64" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="85"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
       <c r="E65" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="H65" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="85"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
       <c r="E66" s="25" t="s">
         <v>118</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="H66" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="85"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="25" t="s">
         <v>120</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="H67" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="85"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
       <c r="E68" s="25" t="s">
         <v>128</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G68" s="4"/>
+      <c r="G68" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="H68" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="89" t="s">
+      <c r="B69" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91" t="s">
+      <c r="C69" s="84"/>
+      <c r="D69" s="84" t="s">
         <v>37</v>
       </c>
       <c r="E69" s="51" t="s">
@@ -4067,184 +4263,232 @@
       <c r="F69" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G69" s="47"/>
+      <c r="G69" s="46" t="s">
+        <v>112</v>
+      </c>
       <c r="H69" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I69" s="49"/>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="87"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
       <c r="E70" s="51" t="s">
         <v>111</v>
       </c>
       <c r="F70" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="47"/>
+      <c r="G70" s="46" t="s">
+        <v>113</v>
+      </c>
       <c r="H70" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I70" s="49"/>
     </row>
     <row r="71" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="87"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
       <c r="E71" s="51" t="s">
         <v>122</v>
       </c>
       <c r="F71" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="47"/>
+      <c r="G71" s="46" t="s">
+        <v>124</v>
+      </c>
       <c r="H71" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I71" s="49"/>
     </row>
     <row r="72" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" s="87"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
       <c r="E72" s="51" t="s">
         <v>114</v>
       </c>
       <c r="F72" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="47"/>
+      <c r="G72" s="46" t="s">
+        <v>123</v>
+      </c>
       <c r="H72" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I72" s="49"/>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="87"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
+      <c r="A73" s="82"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
       <c r="E73" s="51" t="s">
         <v>125</v>
       </c>
       <c r="F73" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="47"/>
+      <c r="G73" s="46" t="s">
+        <v>115</v>
+      </c>
       <c r="H73" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I73" s="49"/>
     </row>
     <row r="74" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="87"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
       <c r="E74" s="51" t="s">
         <v>126</v>
       </c>
       <c r="F74" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="G74" s="47"/>
+      <c r="G74" s="46" t="s">
+        <v>127</v>
+      </c>
       <c r="H74" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I74" s="49"/>
     </row>
     <row r="75" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="87"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
       <c r="E75" s="51" t="s">
         <v>116</v>
       </c>
       <c r="F75" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="47"/>
+      <c r="G75" s="46" t="s">
+        <v>117</v>
+      </c>
       <c r="H75" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I75" s="49"/>
     </row>
     <row r="76" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="87"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
       <c r="E76" s="51" t="s">
         <v>118</v>
       </c>
       <c r="F76" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G76" s="47"/>
+      <c r="G76" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="H76" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I76" s="49"/>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="87"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
       <c r="E77" s="51" t="s">
         <v>120</v>
       </c>
       <c r="F77" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="G77" s="47"/>
+      <c r="G77" s="46" t="s">
+        <v>121</v>
+      </c>
       <c r="H77" s="48" t="s">
         <v>349</v>
       </c>
       <c r="I77" s="49"/>
     </row>
     <row r="78" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="88"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
       <c r="E78" s="56" t="s">
         <v>128</v>
       </c>
       <c r="F78" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="58"/>
-      <c r="H78" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="I78" s="60"/>
+      <c r="G78" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="H78" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="I78" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:Z78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="72">
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:D78"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="B25:B26"/>
@@ -4257,50 +4501,22 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:B68"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:D78"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A35:A40"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
@@ -4325,9 +4541,9 @@
   </sheetPr>
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23:B24"/>
+    <sheetView topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G9:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4344,72 +4560,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="109"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="110">
+      <c r="H1" s="105">
         <v>45590</v>
       </c>
-      <c r="I1" s="111"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="117"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="100" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4432,16 +4648,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4464,16 +4680,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4550,14 +4766,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="141" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -4566,78 +4782,86 @@
       <c r="F9" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="35" t="s">
+        <v>390</v>
+      </c>
       <c r="H9" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="151"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="27" t="s">
         <v>133</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="H10" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="127" t="s">
+      <c r="C11" s="133"/>
+      <c r="D11" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="169" t="s">
+        <v>388</v>
+      </c>
       <c r="H11" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="62" t="s">
+      <c r="A12" s="130"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="63" t="s">
+        <v>134</v>
+      </c>
       <c r="H12" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="141" t="s">
+      <c r="C13" s="125"/>
+      <c r="D13" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -4646,78 +4870,86 @@
       <c r="F13" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="35" t="s">
+        <v>388</v>
+      </c>
       <c r="H13" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="27" t="s">
         <v>135</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="34" t="s">
+        <v>394</v>
+      </c>
       <c r="H14" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="127" t="s">
+      <c r="C15" s="133"/>
+      <c r="D15" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="169" t="s">
+        <v>388</v>
+      </c>
       <c r="H15" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="122"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="62" t="s">
+      <c r="A16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="61" t="s">
+        <v>389</v>
+      </c>
       <c r="H16" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="141" t="s">
+      <c r="C17" s="125"/>
+      <c r="D17" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -4726,78 +4958,86 @@
       <c r="F17" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="H17" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="27" t="s">
         <v>136</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="27" t="s">
+        <v>389</v>
+      </c>
       <c r="H18" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="127" t="s">
+      <c r="C19" s="133"/>
+      <c r="D19" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="60" t="s">
+        <v>388</v>
+      </c>
       <c r="H19" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="62" t="s">
+      <c r="A20" s="130"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="61" t="s">
+        <v>389</v>
+      </c>
       <c r="H20" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="141" t="s">
+      <c r="C21" s="125"/>
+      <c r="D21" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -4806,78 +5046,86 @@
       <c r="F21" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="H21" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="141"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="27" t="s">
         <v>144</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="27" t="s">
+        <v>391</v>
+      </c>
       <c r="H22" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="127" t="s">
+      <c r="C23" s="133"/>
+      <c r="D23" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="60" t="s">
+        <v>388</v>
+      </c>
       <c r="H23" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="122"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="62" t="s">
+      <c r="A24" s="130"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="61" t="s">
+        <v>391</v>
+      </c>
       <c r="H24" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="141" t="s">
+      <c r="C25" s="125"/>
+      <c r="D25" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -4886,78 +5134,86 @@
       <c r="F25" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="H25" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="27" t="s">
         <v>145</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="27" t="s">
+        <v>392</v>
+      </c>
       <c r="H26" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="127" t="s">
+      <c r="C27" s="133"/>
+      <c r="D27" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="47"/>
+      <c r="G27" s="60" t="s">
+        <v>388</v>
+      </c>
       <c r="H27" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="62" t="s">
+      <c r="A28" s="130"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="47"/>
+      <c r="G28" s="61" t="s">
+        <v>392</v>
+      </c>
       <c r="H28" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="135" t="s">
+      <c r="A29" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="141" t="s">
+      <c r="C29" s="120"/>
+      <c r="D29" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -4966,180 +5222,200 @@
       <c r="F29" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="H29" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="135"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="141"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="26" t="s">
         <v>142</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="35" t="s">
+        <v>395</v>
+      </c>
       <c r="H30" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="135"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="141"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="26" t="s">
         <v>148</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="H31" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="135"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="141"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="26" t="s">
         <v>163</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="35" t="s">
+        <v>396</v>
+      </c>
       <c r="H32" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="135"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="141"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="127"/>
       <c r="E33" s="26" t="s">
         <v>164</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="26" t="s">
+        <v>147</v>
+      </c>
       <c r="H33" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="144"/>
-      <c r="D34" s="127" t="s">
+      <c r="C34" s="142"/>
+      <c r="D34" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="47"/>
+      <c r="G34" s="60" t="s">
+        <v>388</v>
+      </c>
       <c r="H34" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="121"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="61" t="s">
+      <c r="A35" s="129"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="47"/>
+      <c r="G35" s="169" t="s">
+        <v>397</v>
+      </c>
       <c r="H35" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="121"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="61" t="s">
+      <c r="A36" s="129"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="47"/>
+      <c r="G36" s="169" t="s">
+        <v>149</v>
+      </c>
       <c r="H36" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I36" s="49"/>
     </row>
     <row r="37" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="121"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="61" t="s">
+      <c r="A37" s="129"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="47"/>
+      <c r="G37" s="169" t="s">
+        <v>396</v>
+      </c>
       <c r="H37" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I37" s="49"/>
     </row>
     <row r="38" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="121"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="61" t="s">
+      <c r="A38" s="129"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="142"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="F38" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="G38" s="47"/>
+      <c r="G38" s="60" t="s">
+        <v>147</v>
+      </c>
       <c r="H38" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I38" s="49"/>
     </row>
     <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="149" t="s">
+      <c r="C39" s="137"/>
+      <c r="D39" s="139" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="28" t="s">
@@ -5148,78 +5424,86 @@
       <c r="F39" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="170" t="s">
+        <v>398</v>
+      </c>
       <c r="H39" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="136"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="149"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="28" t="s">
         <v>161</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="H40" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="134" t="s">
+      <c r="C41" s="145"/>
+      <c r="D41" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="47"/>
+      <c r="G41" s="171" t="s">
+        <v>398</v>
+      </c>
       <c r="H41" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="122"/>
-      <c r="B42" s="124"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="63" t="s">
+      <c r="A42" s="130"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="47"/>
+      <c r="G42" s="62" t="s">
+        <v>162</v>
+      </c>
       <c r="H42" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I42" s="49"/>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="135" t="s">
+      <c r="A43" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="139"/>
-      <c r="D43" s="141" t="s">
+      <c r="C43" s="125"/>
+      <c r="D43" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -5228,112 +5512,124 @@
       <c r="F43" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="H43" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="136"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
+      <c r="A44" s="122"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="26" t="s">
+        <v>393</v>
+      </c>
       <c r="H44" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="136"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
       <c r="E45" s="27" t="s">
         <v>153</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="34" t="s">
+        <v>399</v>
+      </c>
       <c r="H45" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="129" t="s">
+      <c r="B46" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="127" t="s">
+      <c r="C46" s="133"/>
+      <c r="D46" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="61" t="s">
+      <c r="F46" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="47"/>
+      <c r="G46" s="60" t="s">
+        <v>388</v>
+      </c>
       <c r="H46" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I46" s="49"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="122"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="61" t="s">
+      <c r="A47" s="130"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F47" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="169" t="s">
+        <v>152</v>
+      </c>
       <c r="H47" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I47" s="49"/>
     </row>
     <row r="48" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="122"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="62" t="s">
+      <c r="A48" s="130"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="G48" s="47"/>
+      <c r="G48" s="63" t="s">
+        <v>400</v>
+      </c>
       <c r="H48" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I48" s="49"/>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="135" t="s">
+      <c r="A49" s="121" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="141" t="s">
+      <c r="C49" s="125"/>
+      <c r="D49" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="26" t="s">
@@ -5342,112 +5638,124 @@
       <c r="F49" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="H49" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="136"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="141"/>
+      <c r="A50" s="122"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="127"/>
       <c r="E50" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F50" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="35" t="s">
+        <v>152</v>
+      </c>
       <c r="H50" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="136"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="141"/>
+      <c r="A51" s="122"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="26" t="s">
         <v>154</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="35" t="s">
+        <v>386</v>
+      </c>
       <c r="H51" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="125"/>
-      <c r="D52" s="127" t="s">
+      <c r="C52" s="133"/>
+      <c r="D52" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="E52" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="47"/>
+      <c r="G52" s="60" t="s">
+        <v>388</v>
+      </c>
       <c r="H52" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I52" s="49"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="122"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="61" t="s">
+      <c r="A53" s="130"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="F53" s="61" t="s">
+      <c r="F53" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="47"/>
+      <c r="G53" s="169" t="s">
+        <v>152</v>
+      </c>
       <c r="H53" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I53" s="49"/>
     </row>
     <row r="54" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="122"/>
-      <c r="B54" s="124"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="61" t="s">
+      <c r="A54" s="130"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="61" t="s">
+      <c r="F54" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="47"/>
+      <c r="G54" s="169" t="s">
+        <v>386</v>
+      </c>
       <c r="H54" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I54" s="49"/>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="135" t="s">
+      <c r="A55" s="121" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="137" t="s">
+      <c r="B55" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="139"/>
-      <c r="D55" s="141" t="s">
+      <c r="C55" s="125"/>
+      <c r="D55" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -5456,113 +5764,185 @@
       <c r="F55" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="35" t="s">
+        <v>388</v>
+      </c>
       <c r="H55" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="136"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="141"/>
+      <c r="A56" s="122"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="127"/>
       <c r="E56" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F56" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="35" t="s">
+        <v>152</v>
+      </c>
       <c r="H56" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="136"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="141"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="127"/>
       <c r="E57" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F57" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="27" t="s">
+        <v>387</v>
+      </c>
       <c r="H57" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="129" t="s">
+      <c r="B58" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="125"/>
-      <c r="D58" s="127" t="s">
+      <c r="C58" s="133"/>
+      <c r="D58" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="61" t="s">
+      <c r="E58" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F58" s="61" t="s">
+      <c r="F58" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="47"/>
+      <c r="G58" s="60" t="s">
+        <v>388</v>
+      </c>
       <c r="H58" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I58" s="49"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="122"/>
-      <c r="B59" s="124"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="61" t="s">
+      <c r="A59" s="130"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="61" t="s">
+      <c r="F59" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="47"/>
+      <c r="G59" s="169" t="s">
+        <v>152</v>
+      </c>
       <c r="H59" s="45" t="s">
         <v>349</v>
       </c>
       <c r="I59" s="49"/>
     </row>
     <row r="60" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="128"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="65" t="s">
+      <c r="A60" s="148"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="58"/>
+      <c r="G60" s="64" t="s">
+        <v>387</v>
+      </c>
       <c r="H60" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="I60" s="60"/>
+      <c r="I60" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:Z8" xr:uid="{994A2F35-56CD-40C4-AC94-DD259B9B9C2F}"/>
   <mergeCells count="90">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="A13:A14"/>
@@ -5579,73 +5959,13 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Failed">
@@ -5669,9 +5989,9 @@
   </sheetPr>
   <dimension ref="A1:Z125"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120:C124"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5688,72 +6008,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="109"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="110">
+      <c r="H1" s="105">
         <v>45590</v>
       </c>
-      <c r="I1" s="111"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="117"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5776,16 +6096,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5808,16 +6128,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5894,2093 +6214,2313 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="155" t="s">
         <v>236</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="156" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="154" t="s">
+      <c r="C9" s="157"/>
+      <c r="D9" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72" t="s">
+      <c r="G9" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="156"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="73" t="s">
+      <c r="A10" s="155"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72" t="s">
+      <c r="G10" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="156"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="73" t="s">
+      <c r="A11" s="155"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="156"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="73" t="s">
+      <c r="A12" s="155"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="72" t="s">
+      <c r="G12" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="156"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="73" t="s">
+      <c r="A13" s="155"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72" t="s">
+      <c r="G13" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="73" t="s">
+      <c r="A14" s="155"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72" t="s">
+      <c r="G14" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="156"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="73" t="s">
+      <c r="A15" s="155"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="156"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="73" t="s">
+      <c r="A16" s="155"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72" t="s">
+      <c r="G16" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="73" t="s">
+      <c r="A17" s="155"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72" t="s">
+      <c r="G17" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="73" t="s">
+      <c r="A18" s="155"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72" t="s">
+      <c r="G18" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="H18" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="156"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="73" t="s">
+      <c r="A19" s="155"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72" t="s">
+      <c r="G19" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="157"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="73" t="s">
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72" t="s">
+      <c r="G20" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="H20" s="71" t="s">
         <v>363</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="155" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="156" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="152"/>
-      <c r="D21" s="154" t="s">
+      <c r="C21" s="157"/>
+      <c r="D21" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72" t="s">
+      <c r="G21" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="73" t="s">
+      <c r="A22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72" t="s">
+      <c r="G22" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="H22" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="156"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="73" t="s">
+      <c r="A23" s="155"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="156"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="73" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="72" t="s">
+      <c r="G24" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="H24" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="156"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="73" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72" t="s">
+      <c r="G25" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="156"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="73" t="s">
+      <c r="A26" s="155"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72" t="s">
+      <c r="G26" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="156"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="73" t="s">
+      <c r="A27" s="155"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="156"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="73" t="s">
+      <c r="A28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72" t="s">
+      <c r="G28" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="156"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="73" t="s">
+      <c r="A29" s="155"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="F29" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72" t="s">
+      <c r="G29" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="156"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="73" t="s">
+      <c r="A30" s="155"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72" t="s">
+      <c r="G30" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="H30" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="156"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="73" t="s">
+      <c r="A31" s="155"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="F31" s="73" t="s">
+      <c r="F31" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72" t="s">
+      <c r="G31" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="157"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="73" t="s">
+      <c r="A32" s="153"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G32" s="71"/>
-      <c r="H32" s="72" t="s">
+      <c r="G32" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="H32" s="71" t="s">
         <v>363</v>
       </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="158" t="s">
+      <c r="B33" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="152"/>
-      <c r="D33" s="154" t="s">
+      <c r="C33" s="157"/>
+      <c r="D33" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72" t="s">
+      <c r="G33" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="156"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="73" t="s">
+      <c r="A34" s="155"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72" t="s">
+      <c r="G34" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="156"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="73" t="s">
+      <c r="A35" s="155"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72" t="s">
+      <c r="G35" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="156"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="73" t="s">
+      <c r="A36" s="155"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F36" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72" t="s">
+      <c r="G36" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="156"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="73" t="s">
+      <c r="A37" s="155"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="F37" s="73" t="s">
+      <c r="F37" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="72" t="s">
+      <c r="G37" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="H37" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="156"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="70" t="s">
+      <c r="A38" s="155"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72" t="s">
+      <c r="G38" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="156"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="70" t="s">
+      <c r="A39" s="155"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="F39" s="70" t="s">
+      <c r="F39" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="72" t="s">
+      <c r="G39" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="156"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="70" t="s">
+      <c r="A40" s="155"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="F40" s="70" t="s">
+      <c r="F40" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="72" t="s">
+      <c r="G40" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="156"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="70" t="s">
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="69" t="s">
         <v>369</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72" t="s">
+      <c r="G41" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="156"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="70" t="s">
+      <c r="A42" s="155"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="69" t="s">
         <v>370</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72" t="s">
+      <c r="G42" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="156"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="70" t="s">
+      <c r="A43" s="155"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72" t="s">
+      <c r="G43" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="156"/>
-      <c r="B44" s="158"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="70" t="s">
+      <c r="A44" s="155"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="F44" s="70" t="s">
+      <c r="F44" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="G44" s="71"/>
-      <c r="H44" s="72" t="s">
+      <c r="G44" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="156"/>
-      <c r="B45" s="158"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="73" t="s">
+      <c r="A45" s="155"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="F45" s="73" t="s">
+      <c r="F45" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="G45" s="71"/>
-      <c r="H45" s="72" t="s">
+      <c r="G45" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="156"/>
-      <c r="B46" s="158"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="70" t="s">
+      <c r="A46" s="155"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="F46" s="70" t="s">
+      <c r="F46" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="G46" s="71"/>
-      <c r="H46" s="72" t="s">
+      <c r="G46" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H46" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="156"/>
-      <c r="B47" s="158"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="70" t="s">
+      <c r="A47" s="155"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="69" t="s">
         <v>378</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="72" t="s">
+      <c r="G47" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="155" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="152"/>
-      <c r="D48" s="154" t="s">
+      <c r="C48" s="157"/>
+      <c r="D48" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="70" t="s">
+      <c r="F48" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="H48" s="72" t="s">
+      <c r="G48" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="H48" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="156"/>
-      <c r="B49" s="158"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="154"/>
-      <c r="E49" s="73" t="s">
+      <c r="A49" s="155"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="73" t="s">
+      <c r="F49" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="72" t="s">
+      <c r="G49" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="156"/>
-      <c r="B50" s="158"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="73" t="s">
+      <c r="A50" s="155"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F50" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="71"/>
-      <c r="H50" s="72" t="s">
+      <c r="G50" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="156"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="73" t="s">
+      <c r="A51" s="155"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="73" t="s">
+      <c r="F51" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="G51" s="71"/>
-      <c r="H51" s="72" t="s">
+      <c r="G51" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="H51" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="156"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="73" t="s">
+      <c r="A52" s="155"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="F52" s="73" t="s">
+      <c r="F52" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="G52" s="71"/>
-      <c r="H52" s="72" t="s">
+      <c r="G52" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="H52" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="156"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="70" t="s">
+      <c r="A53" s="155"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="F53" s="70" t="s">
+      <c r="F53" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="72" t="s">
+      <c r="G53" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="H53" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="156"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="70" t="s">
+      <c r="A54" s="155"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="71"/>
-      <c r="H54" s="72" t="s">
+      <c r="G54" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="H54" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="156"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="70" t="s">
+      <c r="A55" s="155"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="157"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="F55" s="70" t="s">
+      <c r="F55" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="G55" s="71"/>
-      <c r="H55" s="72" t="s">
+      <c r="G55" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="156"/>
-      <c r="B56" s="158"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="70" t="s">
+      <c r="A56" s="155"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="69" t="s">
         <v>369</v>
       </c>
-      <c r="F56" s="70" t="s">
+      <c r="F56" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="G56" s="71"/>
-      <c r="H56" s="72" t="s">
+      <c r="G56" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="H56" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="156"/>
-      <c r="B57" s="158"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="70" t="s">
+      <c r="A57" s="155"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="69" t="s">
         <v>370</v>
       </c>
-      <c r="F57" s="70" t="s">
+      <c r="F57" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="G57" s="71"/>
-      <c r="H57" s="72" t="s">
+      <c r="G57" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="156"/>
-      <c r="B58" s="158"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="70" t="s">
+      <c r="A58" s="155"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="F58" s="70" t="s">
+      <c r="F58" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="71"/>
-      <c r="H58" s="72" t="s">
+      <c r="G58" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="156"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="70" t="s">
+      <c r="A59" s="155"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="F59" s="70" t="s">
+      <c r="F59" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="G59" s="71"/>
-      <c r="H59" s="72" t="s">
+      <c r="G59" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="H59" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="156"/>
-      <c r="B60" s="158"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="73" t="s">
+      <c r="A60" s="155"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="F60" s="73" t="s">
+      <c r="F60" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="G60" s="71"/>
-      <c r="H60" s="72" t="s">
+      <c r="G60" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="H60" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="156"/>
-      <c r="B61" s="158"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="70" t="s">
+      <c r="A61" s="155"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="F61" s="70" t="s">
+      <c r="F61" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="G61" s="71"/>
-      <c r="H61" s="72" t="s">
+      <c r="G61" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H61" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="156"/>
-      <c r="B62" s="158"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="70" t="s">
+      <c r="A62" s="155"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="69" t="s">
         <v>378</v>
       </c>
-      <c r="F62" s="70" t="s">
+      <c r="F62" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="72" t="s">
+      <c r="G62" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="H62" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69" t="s">
+      <c r="C63" s="67"/>
+      <c r="D63" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="70" t="s">
+      <c r="E63" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="F63" s="70" t="s">
+      <c r="F63" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="G63" s="71"/>
-      <c r="H63" s="72" t="s">
+      <c r="G63" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="H63" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="69" t="s">
+      <c r="C64" s="67"/>
+      <c r="D64" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="70" t="s">
+      <c r="E64" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="F64" s="70" t="s">
+      <c r="F64" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="G64" s="71"/>
-      <c r="H64" s="72" t="s">
+      <c r="G64" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="H64" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="69" t="s">
+      <c r="C65" s="67"/>
+      <c r="D65" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="70" t="s">
+      <c r="E65" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="70" t="s">
+      <c r="F65" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="G65" s="71"/>
-      <c r="H65" s="72" t="s">
+      <c r="G65" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="H65" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A66" s="66" t="s">
+      <c r="A66" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="69" t="s">
+      <c r="C66" s="67"/>
+      <c r="D66" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="70" t="s">
+      <c r="F66" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="G66" s="71"/>
-      <c r="H66" s="72" t="s">
+      <c r="G66" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="H66" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="156" t="s">
+      <c r="A67" s="155" t="s">
         <v>243</v>
       </c>
-      <c r="B67" s="158" t="s">
+      <c r="B67" s="156" t="s">
         <v>327</v>
       </c>
-      <c r="C67" s="165"/>
-      <c r="D67" s="154" t="s">
+      <c r="C67" s="166"/>
+      <c r="D67" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="70" t="s">
+      <c r="E67" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="F67" s="70" t="s">
+      <c r="F67" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="G67" s="71"/>
-      <c r="H67" s="72" t="s">
+      <c r="G67" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="156"/>
-      <c r="B68" s="158"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="73" t="s">
+      <c r="A68" s="155"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="F68" s="73" t="s">
+      <c r="F68" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72" t="s">
+      <c r="G68" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="H68" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="156"/>
-      <c r="B69" s="158"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="70" t="s">
+      <c r="A69" s="155"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="F69" s="70" t="s">
+      <c r="F69" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="G69" s="71"/>
-      <c r="H69" s="72" t="s">
+      <c r="G69" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="H69" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="156"/>
-      <c r="B70" s="158"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="70" t="s">
+      <c r="A70" s="155"/>
+      <c r="B70" s="156"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="158"/>
+      <c r="E70" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="F70" s="70" t="s">
+      <c r="F70" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="G70" s="71"/>
-      <c r="H70" s="72" t="s">
+      <c r="G70" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="H70" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="156"/>
-      <c r="B71" s="158"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="70" t="s">
+      <c r="A71" s="155"/>
+      <c r="B71" s="156"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="158"/>
+      <c r="E71" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="F71" s="70" t="s">
+      <c r="F71" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="G71" s="71"/>
-      <c r="H71" s="72" t="s">
+      <c r="G71" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="H71" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="156"/>
-      <c r="B72" s="158"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="70" t="s">
+      <c r="A72" s="155"/>
+      <c r="B72" s="156"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="158"/>
+      <c r="E72" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="F72" s="70" t="s">
+      <c r="F72" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="G72" s="71"/>
-      <c r="H72" s="72" t="s">
+      <c r="G72" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="H72" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="156"/>
-      <c r="B73" s="158"/>
-      <c r="C73" s="165"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="70" t="s">
+      <c r="A73" s="155"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="158"/>
+      <c r="E73" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="F73" s="70" t="s">
+      <c r="F73" s="69" t="s">
         <v>335</v>
       </c>
-      <c r="G73" s="75" t="s">
+      <c r="G73" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="H73" s="72" t="s">
+      <c r="H73" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="156"/>
-      <c r="B74" s="158"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="70" t="s">
+      <c r="A74" s="155"/>
+      <c r="B74" s="156"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="F74" s="70" t="s">
+      <c r="F74" s="69" t="s">
         <v>337</v>
       </c>
-      <c r="G74" s="71"/>
-      <c r="H74" s="72" t="s">
+      <c r="G74" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="H74" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="156"/>
-      <c r="B75" s="158"/>
-      <c r="C75" s="165"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="70" t="s">
+      <c r="A75" s="155"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="F75" s="70" t="s">
+      <c r="F75" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="G75" s="71"/>
-      <c r="H75" s="72" t="s">
+      <c r="G75" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="H75" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="156"/>
-      <c r="B76" s="158"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="70" t="s">
+      <c r="A76" s="155"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="69" t="s">
         <v>340</v>
       </c>
-      <c r="F76" s="70" t="s">
+      <c r="F76" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="72" t="s">
+      <c r="G76" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="H76" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="156" t="s">
+      <c r="A77" s="155" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="158" t="s">
+      <c r="B77" s="156" t="s">
         <v>327</v>
       </c>
-      <c r="C77" s="165"/>
-      <c r="D77" s="154" t="s">
+      <c r="C77" s="166"/>
+      <c r="D77" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="70" t="s">
+      <c r="E77" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="F77" s="70" t="s">
+      <c r="F77" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="G77" s="71"/>
-      <c r="H77" s="72" t="s">
+      <c r="G77" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="H77" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="156"/>
-      <c r="B78" s="158"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="154"/>
-      <c r="E78" s="73" t="s">
+      <c r="A78" s="155"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="158"/>
+      <c r="E78" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="F78" s="73" t="s">
+      <c r="F78" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="G78" s="71"/>
-      <c r="H78" s="72" t="s">
+      <c r="G78" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="H78" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="156"/>
-      <c r="B79" s="158"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="154"/>
-      <c r="E79" s="70" t="s">
+      <c r="A79" s="155"/>
+      <c r="B79" s="156"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="158"/>
+      <c r="E79" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="F79" s="70" t="s">
+      <c r="F79" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="G79" s="71"/>
-      <c r="H79" s="72" t="s">
+      <c r="G79" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="H79" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="156"/>
-      <c r="B80" s="158"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="154"/>
-      <c r="E80" s="70" t="s">
+      <c r="A80" s="155"/>
+      <c r="B80" s="156"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="158"/>
+      <c r="E80" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="F80" s="70" t="s">
+      <c r="F80" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="G80" s="71"/>
-      <c r="H80" s="72" t="s">
+      <c r="G80" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="H80" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="156"/>
-      <c r="B81" s="158"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="154"/>
-      <c r="E81" s="70" t="s">
+      <c r="A81" s="155"/>
+      <c r="B81" s="156"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="F81" s="70" t="s">
+      <c r="F81" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="G81" s="71"/>
-      <c r="H81" s="72" t="s">
+      <c r="G81" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="H81" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="156"/>
-      <c r="B82" s="158"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="70" t="s">
+      <c r="A82" s="155"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="158"/>
+      <c r="E82" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="F82" s="70" t="s">
+      <c r="F82" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="G82" s="71"/>
-      <c r="H82" s="72" t="s">
+      <c r="G82" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="H82" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="156"/>
-      <c r="B83" s="158"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="70" t="s">
+      <c r="A83" s="155"/>
+      <c r="B83" s="156"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="F83" s="70" t="s">
+      <c r="F83" s="69" t="s">
         <v>335</v>
       </c>
-      <c r="G83" s="75" t="s">
+      <c r="G83" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="H83" s="72" t="s">
+      <c r="H83" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="156"/>
-      <c r="B84" s="158"/>
-      <c r="C84" s="165"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="70" t="s">
+      <c r="A84" s="155"/>
+      <c r="B84" s="156"/>
+      <c r="C84" s="166"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="70" t="s">
+      <c r="F84" s="69" t="s">
         <v>337</v>
       </c>
-      <c r="G84" s="71"/>
-      <c r="H84" s="72" t="s">
+      <c r="G84" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="H84" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="156"/>
-      <c r="B85" s="158"/>
-      <c r="C85" s="165"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="70" t="s">
+      <c r="A85" s="155"/>
+      <c r="B85" s="156"/>
+      <c r="C85" s="166"/>
+      <c r="D85" s="158"/>
+      <c r="E85" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="F85" s="70" t="s">
+      <c r="F85" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="G85" s="71"/>
-      <c r="H85" s="72" t="s">
+      <c r="G85" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="H85" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="156"/>
-      <c r="B86" s="158"/>
-      <c r="C86" s="165"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="70" t="s">
+      <c r="A86" s="155"/>
+      <c r="B86" s="156"/>
+      <c r="C86" s="166"/>
+      <c r="D86" s="158"/>
+      <c r="E86" s="69" t="s">
         <v>340</v>
       </c>
-      <c r="F86" s="70" t="s">
+      <c r="F86" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="G86" s="71"/>
-      <c r="H86" s="72" t="s">
+      <c r="G86" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="H86" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="157" t="s">
+      <c r="A87" s="153" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="166" t="s">
+      <c r="B87" s="152" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="155"/>
-      <c r="D87" s="155" t="s">
+      <c r="C87" s="154"/>
+      <c r="D87" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="F87" s="73" t="s">
+      <c r="F87" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="G87" s="71"/>
-      <c r="H87" s="72" t="s">
+      <c r="G87" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="H87" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="157"/>
-      <c r="B88" s="166"/>
-      <c r="C88" s="155"/>
-      <c r="D88" s="155"/>
-      <c r="E88" s="73" t="s">
+      <c r="A88" s="153"/>
+      <c r="B88" s="152"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="154"/>
+      <c r="E88" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="F88" s="73" t="s">
+      <c r="F88" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="G88" s="71"/>
-      <c r="H88" s="72" t="s">
+      <c r="G88" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="H88" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="157"/>
-      <c r="B89" s="166"/>
-      <c r="C89" s="155"/>
-      <c r="D89" s="155"/>
-      <c r="E89" s="73" t="s">
+      <c r="A89" s="153"/>
+      <c r="B89" s="152"/>
+      <c r="C89" s="154"/>
+      <c r="D89" s="154"/>
+      <c r="E89" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="73" t="s">
+      <c r="F89" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="G89" s="71"/>
-      <c r="H89" s="72" t="s">
+      <c r="G89" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="H89" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="157"/>
-      <c r="B90" s="166"/>
-      <c r="C90" s="155"/>
-      <c r="D90" s="155"/>
-      <c r="E90" s="73" t="s">
+      <c r="A90" s="153"/>
+      <c r="B90" s="152"/>
+      <c r="C90" s="154"/>
+      <c r="D90" s="154"/>
+      <c r="E90" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="F90" s="73" t="s">
+      <c r="F90" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="G90" s="71"/>
-      <c r="H90" s="72" t="s">
+      <c r="G90" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="H90" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="157"/>
-      <c r="B91" s="166"/>
-      <c r="C91" s="155"/>
-      <c r="D91" s="155"/>
-      <c r="E91" s="73" t="s">
+      <c r="A91" s="153"/>
+      <c r="B91" s="152"/>
+      <c r="C91" s="154"/>
+      <c r="D91" s="154"/>
+      <c r="E91" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="F91" s="73" t="s">
+      <c r="F91" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="G91" s="71"/>
-      <c r="H91" s="72" t="s">
+      <c r="G91" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="H91" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="157"/>
-      <c r="B92" s="166"/>
-      <c r="C92" s="155"/>
-      <c r="D92" s="155"/>
-      <c r="E92" s="73" t="s">
+      <c r="A92" s="153"/>
+      <c r="B92" s="152"/>
+      <c r="C92" s="154"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="F92" s="73" t="s">
+      <c r="F92" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="G92" s="71"/>
-      <c r="H92" s="72" t="s">
+      <c r="G92" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="H92" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="157"/>
-      <c r="B93" s="166"/>
-      <c r="C93" s="155"/>
-      <c r="D93" s="155"/>
-      <c r="E93" s="73" t="s">
+      <c r="A93" s="153"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="154"/>
+      <c r="D93" s="154"/>
+      <c r="E93" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="F93" s="73" t="s">
+      <c r="F93" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="G93" s="71"/>
-      <c r="H93" s="72" t="s">
+      <c r="G93" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="H93" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="157" t="s">
+      <c r="A94" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="B94" s="166" t="s">
+      <c r="B94" s="152" t="s">
         <v>257</v>
       </c>
-      <c r="C94" s="155"/>
-      <c r="D94" s="155" t="s">
+      <c r="C94" s="154"/>
+      <c r="D94" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="73" t="s">
+      <c r="E94" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="F94" s="73" t="s">
+      <c r="F94" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="G94" s="71"/>
-      <c r="H94" s="72" t="s">
+      <c r="G94" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="H94" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="157"/>
-      <c r="B95" s="166"/>
-      <c r="C95" s="155"/>
-      <c r="D95" s="155"/>
-      <c r="E95" s="73" t="s">
+      <c r="A95" s="153"/>
+      <c r="B95" s="152"/>
+      <c r="C95" s="154"/>
+      <c r="D95" s="154"/>
+      <c r="E95" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="F95" s="73" t="s">
+      <c r="F95" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="G95" s="71"/>
-      <c r="H95" s="72" t="s">
+      <c r="G95" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="H95" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="157"/>
-      <c r="B96" s="166"/>
-      <c r="C96" s="155"/>
-      <c r="D96" s="155"/>
-      <c r="E96" s="73" t="s">
+      <c r="A96" s="153"/>
+      <c r="B96" s="152"/>
+      <c r="C96" s="154"/>
+      <c r="D96" s="154"/>
+      <c r="E96" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="F96" s="73" t="s">
+      <c r="F96" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="G96" s="71"/>
-      <c r="H96" s="72" t="s">
+      <c r="G96" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="H96" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="157"/>
-      <c r="B97" s="166"/>
-      <c r="C97" s="155"/>
-      <c r="D97" s="155"/>
-      <c r="E97" s="73" t="s">
+      <c r="A97" s="153"/>
+      <c r="B97" s="152"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="F97" s="73" t="s">
+      <c r="F97" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="G97" s="71"/>
-      <c r="H97" s="72" t="s">
+      <c r="G97" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="H97" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="157"/>
-      <c r="B98" s="166"/>
-      <c r="C98" s="155"/>
-      <c r="D98" s="155"/>
-      <c r="E98" s="73" t="s">
+      <c r="A98" s="153"/>
+      <c r="B98" s="152"/>
+      <c r="C98" s="154"/>
+      <c r="D98" s="154"/>
+      <c r="E98" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="F98" s="73" t="s">
+      <c r="F98" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="G98" s="71"/>
-      <c r="H98" s="72" t="s">
+      <c r="G98" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="H98" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="157"/>
-      <c r="B99" s="166"/>
-      <c r="C99" s="155"/>
-      <c r="D99" s="155"/>
-      <c r="E99" s="73" t="s">
+      <c r="A99" s="153"/>
+      <c r="B99" s="152"/>
+      <c r="C99" s="154"/>
+      <c r="D99" s="154"/>
+      <c r="E99" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="F99" s="73" t="s">
+      <c r="F99" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="G99" s="71"/>
-      <c r="H99" s="72" t="s">
+      <c r="G99" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="H99" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="157"/>
-      <c r="B100" s="166"/>
-      <c r="C100" s="155"/>
-      <c r="D100" s="155"/>
-      <c r="E100" s="73" t="s">
+      <c r="A100" s="153"/>
+      <c r="B100" s="152"/>
+      <c r="C100" s="154"/>
+      <c r="D100" s="154"/>
+      <c r="E100" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="F100" s="73" t="s">
+      <c r="F100" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="G100" s="71"/>
-      <c r="H100" s="72" t="s">
+      <c r="G100" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="H100" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="157" t="s">
+      <c r="A101" s="153" t="s">
         <v>247</v>
       </c>
-      <c r="B101" s="166" t="s">
+      <c r="B101" s="152" t="s">
         <v>272</v>
       </c>
-      <c r="C101" s="155"/>
-      <c r="D101" s="155" t="s">
+      <c r="C101" s="154"/>
+      <c r="D101" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="73" t="s">
+      <c r="E101" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="F101" s="73" t="s">
+      <c r="F101" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="G101" s="71"/>
-      <c r="H101" s="72" t="s">
+      <c r="G101" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="H101" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="157"/>
-      <c r="B102" s="166"/>
-      <c r="C102" s="155"/>
-      <c r="D102" s="155"/>
-      <c r="E102" s="73" t="s">
+      <c r="A102" s="153"/>
+      <c r="B102" s="152"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="154"/>
+      <c r="E102" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="F102" s="73" t="s">
+      <c r="F102" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="G102" s="71"/>
-      <c r="H102" s="72" t="s">
+      <c r="G102" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A103" s="157"/>
-      <c r="B103" s="166"/>
-      <c r="C103" s="155"/>
-      <c r="D103" s="155"/>
-      <c r="E103" s="73" t="s">
+      <c r="A103" s="153"/>
+      <c r="B103" s="152"/>
+      <c r="C103" s="154"/>
+      <c r="D103" s="154"/>
+      <c r="E103" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="F103" s="73" t="s">
+      <c r="F103" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="G103" s="71"/>
-      <c r="H103" s="72" t="s">
+      <c r="G103" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="H103" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="157"/>
-      <c r="B104" s="166"/>
-      <c r="C104" s="155"/>
-      <c r="D104" s="155"/>
-      <c r="E104" s="73" t="s">
+      <c r="A104" s="153"/>
+      <c r="B104" s="152"/>
+      <c r="C104" s="154"/>
+      <c r="D104" s="154"/>
+      <c r="E104" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="F104" s="73" t="s">
+      <c r="F104" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="G104" s="71"/>
-      <c r="H104" s="72" t="s">
+      <c r="G104" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="H104" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="157"/>
-      <c r="B105" s="166"/>
-      <c r="C105" s="155"/>
-      <c r="D105" s="155"/>
-      <c r="E105" s="73" t="s">
+      <c r="A105" s="153"/>
+      <c r="B105" s="152"/>
+      <c r="C105" s="154"/>
+      <c r="D105" s="154"/>
+      <c r="E105" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="F105" s="73" t="s">
+      <c r="F105" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="G105" s="71"/>
-      <c r="H105" s="72" t="s">
+      <c r="G105" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="H105" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="157"/>
-      <c r="B106" s="166"/>
-      <c r="C106" s="155"/>
-      <c r="D106" s="155"/>
-      <c r="E106" s="73" t="s">
+      <c r="A106" s="153"/>
+      <c r="B106" s="152"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="F106" s="73" t="s">
+      <c r="F106" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="G106" s="71"/>
-      <c r="H106" s="72" t="s">
+      <c r="G106" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="H106" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="157" t="s">
+      <c r="A107" s="153" t="s">
         <v>248</v>
       </c>
-      <c r="B107" s="166" t="s">
+      <c r="B107" s="152" t="s">
         <v>272</v>
       </c>
-      <c r="C107" s="155"/>
-      <c r="D107" s="155" t="s">
+      <c r="C107" s="154"/>
+      <c r="D107" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="73" t="s">
+      <c r="E107" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="F107" s="73" t="s">
+      <c r="F107" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="G107" s="71"/>
-      <c r="H107" s="72" t="s">
+      <c r="G107" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="H107" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="157"/>
-      <c r="B108" s="166"/>
-      <c r="C108" s="155"/>
-      <c r="D108" s="155"/>
-      <c r="E108" s="73" t="s">
+      <c r="A108" s="153"/>
+      <c r="B108" s="152"/>
+      <c r="C108" s="154"/>
+      <c r="D108" s="154"/>
+      <c r="E108" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="F108" s="73" t="s">
+      <c r="F108" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="G108" s="71"/>
-      <c r="H108" s="72" t="s">
+      <c r="G108" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="H108" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="157"/>
-      <c r="B109" s="166"/>
-      <c r="C109" s="155"/>
-      <c r="D109" s="155"/>
-      <c r="E109" s="73" t="s">
+      <c r="A109" s="153"/>
+      <c r="B109" s="152"/>
+      <c r="C109" s="154"/>
+      <c r="D109" s="154"/>
+      <c r="E109" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="F109" s="73" t="s">
+      <c r="F109" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="G109" s="71"/>
-      <c r="H109" s="72" t="s">
+      <c r="G109" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="H109" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="157"/>
-      <c r="B110" s="166"/>
-      <c r="C110" s="155"/>
-      <c r="D110" s="155"/>
-      <c r="E110" s="73" t="s">
+      <c r="A110" s="153"/>
+      <c r="B110" s="152"/>
+      <c r="C110" s="154"/>
+      <c r="D110" s="154"/>
+      <c r="E110" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="F110" s="73" t="s">
+      <c r="F110" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="G110" s="71"/>
-      <c r="H110" s="72" t="s">
+      <c r="G110" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="H110" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="157"/>
-      <c r="B111" s="166"/>
-      <c r="C111" s="155"/>
-      <c r="D111" s="155"/>
-      <c r="E111" s="73" t="s">
+      <c r="A111" s="153"/>
+      <c r="B111" s="152"/>
+      <c r="C111" s="154"/>
+      <c r="D111" s="154"/>
+      <c r="E111" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="F111" s="73" t="s">
+      <c r="F111" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="G111" s="71"/>
-      <c r="H111" s="72" t="s">
+      <c r="G111" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="H111" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="157"/>
-      <c r="B112" s="166"/>
-      <c r="C112" s="155"/>
-      <c r="D112" s="155"/>
-      <c r="E112" s="76" t="s">
+      <c r="A112" s="153"/>
+      <c r="B112" s="152"/>
+      <c r="C112" s="154"/>
+      <c r="D112" s="154"/>
+      <c r="E112" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="F112" s="73" t="s">
+      <c r="F112" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="G112" s="71"/>
-      <c r="H112" s="72" t="s">
+      <c r="G112" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="H112" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="77" t="s">
+      <c r="A113" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="B113" s="78" t="s">
+      <c r="B113" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72" t="s">
+      <c r="C113" s="71"/>
+      <c r="D113" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="79" t="s">
+      <c r="E113" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="F113" s="75" t="s">
+      <c r="F113" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="G113" s="71"/>
-      <c r="H113" s="72" t="s">
+      <c r="G113" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="H113" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="B114" s="78" t="s">
+      <c r="B114" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="C114" s="72"/>
-      <c r="D114" s="72" t="s">
+      <c r="C114" s="71"/>
+      <c r="D114" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="80" t="s">
+      <c r="E114" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="F114" s="75" t="s">
+      <c r="F114" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="G114" s="71"/>
-      <c r="H114" s="72" t="s">
+      <c r="G114" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="H114" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A115" s="159" t="s">
+      <c r="A115" s="162" t="s">
         <v>343</v>
       </c>
-      <c r="B115" s="161" t="s">
+      <c r="B115" s="160" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="163"/>
-      <c r="D115" s="163" t="s">
+      <c r="C115" s="161"/>
+      <c r="D115" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="E115" s="75" t="s">
+      <c r="E115" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="F115" s="75" t="s">
+      <c r="F115" s="74" t="s">
         <v>313</v>
       </c>
-      <c r="G115" s="71"/>
-      <c r="H115" s="72" t="s">
+      <c r="G115" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="H115" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="159"/>
-      <c r="B116" s="161"/>
-      <c r="C116" s="163"/>
-      <c r="D116" s="163"/>
-      <c r="E116" s="75" t="s">
+      <c r="A116" s="162"/>
+      <c r="B116" s="160"/>
+      <c r="C116" s="161"/>
+      <c r="D116" s="161"/>
+      <c r="E116" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="F116" s="75" t="s">
+      <c r="F116" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="G116" s="71"/>
-      <c r="H116" s="72" t="s">
+      <c r="G116" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="H116" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="159"/>
-      <c r="B117" s="161"/>
-      <c r="C117" s="163"/>
-      <c r="D117" s="163"/>
-      <c r="E117" s="75" t="s">
+      <c r="A117" s="162"/>
+      <c r="B117" s="160"/>
+      <c r="C117" s="161"/>
+      <c r="D117" s="161"/>
+      <c r="E117" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="F117" s="75" t="s">
+      <c r="F117" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="G117" s="71"/>
-      <c r="H117" s="72" t="s">
+      <c r="G117" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="H117" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="159"/>
-      <c r="B118" s="161"/>
-      <c r="C118" s="163"/>
-      <c r="D118" s="163"/>
-      <c r="E118" s="75" t="s">
+      <c r="A118" s="162"/>
+      <c r="B118" s="160"/>
+      <c r="C118" s="161"/>
+      <c r="D118" s="161"/>
+      <c r="E118" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="F118" s="75" t="s">
+      <c r="F118" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="G118" s="71"/>
-      <c r="H118" s="72" t="s">
+      <c r="G118" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="H118" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="159"/>
-      <c r="B119" s="161"/>
-      <c r="C119" s="163"/>
-      <c r="D119" s="163"/>
-      <c r="E119" s="75" t="s">
+      <c r="A119" s="162"/>
+      <c r="B119" s="160"/>
+      <c r="C119" s="161"/>
+      <c r="D119" s="161"/>
+      <c r="E119" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="F119" s="75" t="s">
+      <c r="F119" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="G119" s="71"/>
-      <c r="H119" s="72" t="s">
+      <c r="G119" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="H119" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A120" s="159" t="s">
+      <c r="A120" s="162" t="s">
         <v>344</v>
       </c>
-      <c r="B120" s="161" t="s">
+      <c r="B120" s="160" t="s">
         <v>320</v>
       </c>
-      <c r="C120" s="163"/>
-      <c r="D120" s="163" t="s">
+      <c r="C120" s="161"/>
+      <c r="D120" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="75" t="s">
+      <c r="E120" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="F120" s="75" t="s">
+      <c r="F120" s="74" t="s">
         <v>313</v>
       </c>
-      <c r="G120" s="71"/>
-      <c r="H120" s="72" t="s">
+      <c r="G120" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="H120" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="159"/>
-      <c r="B121" s="161"/>
-      <c r="C121" s="163"/>
-      <c r="D121" s="163"/>
-      <c r="E121" s="75" t="s">
+      <c r="A121" s="162"/>
+      <c r="B121" s="160"/>
+      <c r="C121" s="161"/>
+      <c r="D121" s="161"/>
+      <c r="E121" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="F121" s="75" t="s">
+      <c r="F121" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="G121" s="71"/>
-      <c r="H121" s="72" t="s">
+      <c r="G121" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="H121" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="159"/>
-      <c r="B122" s="161"/>
-      <c r="C122" s="163"/>
-      <c r="D122" s="163"/>
-      <c r="E122" s="75" t="s">
+      <c r="A122" s="162"/>
+      <c r="B122" s="160"/>
+      <c r="C122" s="161"/>
+      <c r="D122" s="161"/>
+      <c r="E122" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="F122" s="75" t="s">
+      <c r="F122" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="G122" s="71"/>
-      <c r="H122" s="72" t="s">
+      <c r="G122" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="H122" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="159"/>
-      <c r="B123" s="161"/>
-      <c r="C123" s="163"/>
-      <c r="D123" s="163"/>
-      <c r="E123" s="75" t="s">
+      <c r="A123" s="162"/>
+      <c r="B123" s="160"/>
+      <c r="C123" s="161"/>
+      <c r="D123" s="161"/>
+      <c r="E123" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="F123" s="75" t="s">
+      <c r="F123" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="G123" s="71"/>
-      <c r="H123" s="72" t="s">
+      <c r="G123" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="H123" s="71" t="s">
         <v>349</v>
       </c>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="160"/>
-      <c r="B124" s="162"/>
-      <c r="C124" s="164"/>
-      <c r="D124" s="164"/>
-      <c r="E124" s="82" t="s">
+      <c r="A124" s="163"/>
+      <c r="B124" s="164"/>
+      <c r="C124" s="165"/>
+      <c r="D124" s="165"/>
+      <c r="E124" s="81" t="s">
         <v>324</v>
       </c>
-      <c r="F124" s="82" t="s">
+      <c r="F124" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="G124" s="83"/>
-      <c r="H124" s="81" t="s">
+      <c r="G124" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="H124" s="80" t="s">
         <v>349</v>
       </c>
       <c r="I124" s="7"/>
@@ -7990,48 +8530,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="D87:D93"/>
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="B33:B47"/>
-    <mergeCell ref="C33:C47"/>
-    <mergeCell ref="D33:D47"/>
-    <mergeCell ref="C48:C62"/>
-    <mergeCell ref="D48:D62"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="B48:B62"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="C9:C20"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="A115:A119"/>
     <mergeCell ref="C21:C32"/>
     <mergeCell ref="D21:D32"/>
     <mergeCell ref="A21:A32"/>
@@ -8048,6 +8546,48 @@
     <mergeCell ref="B77:B86"/>
     <mergeCell ref="C77:C86"/>
     <mergeCell ref="D77:D86"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="D9:D20"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="D87:D93"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B33:B47"/>
+    <mergeCell ref="C33:C47"/>
+    <mergeCell ref="D33:D47"/>
+    <mergeCell ref="C48:C62"/>
+    <mergeCell ref="D48:D62"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="B48:B62"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="No Run">
@@ -8076,7 +8616,7 @@
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8093,72 +8633,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="109"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="110">
+      <c r="H1" s="105">
         <v>45590</v>
       </c>
-      <c r="I1" s="111"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="117"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="100" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -8181,16 +8721,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -8213,16 +8753,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -8299,14 +8839,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="121" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="141" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -8320,10 +8860,10 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="151"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="27" t="s">
         <v>133</v>
       </c>
@@ -8335,14 +8875,14 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="141" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -8356,10 +8896,10 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="136"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="151"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="27" t="s">
         <v>133</v>
       </c>
@@ -8371,14 +8911,14 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="141" t="s">
+      <c r="C13" s="125"/>
+      <c r="D13" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -8392,10 +8932,10 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="27" t="s">
         <v>135</v>
       </c>
@@ -8407,14 +8947,14 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="141" t="s">
+      <c r="C15" s="125"/>
+      <c r="D15" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -8428,10 +8968,10 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="136"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="27" t="s">
         <v>135</v>
       </c>
@@ -8443,14 +8983,14 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="141" t="s">
+      <c r="C17" s="125"/>
+      <c r="D17" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -8464,10 +9004,10 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="27" t="s">
         <v>136</v>
       </c>
@@ -8479,14 +9019,14 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="141" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -8500,10 +9040,10 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="136"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="27" t="s">
         <v>136</v>
       </c>
@@ -8515,14 +9055,14 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="141" t="s">
+      <c r="C21" s="125"/>
+      <c r="D21" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -8536,10 +9076,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="141"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="27" t="s">
         <v>144</v>
       </c>
@@ -8551,14 +9091,14 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="141" t="s">
+      <c r="C23" s="125"/>
+      <c r="D23" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="26" t="s">
@@ -8572,10 +9112,10 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="141"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="27" t="s">
         <v>144</v>
       </c>
@@ -8587,14 +9127,14 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="141" t="s">
+      <c r="C25" s="125"/>
+      <c r="D25" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -8608,10 +9148,10 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="27" t="s">
         <v>145</v>
       </c>
@@ -8623,14 +9163,14 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="139"/>
-      <c r="D27" s="141" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -8644,10 +9184,10 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="27" t="s">
         <v>145</v>
       </c>
@@ -8659,14 +9199,14 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="135" t="s">
+      <c r="A29" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="141" t="s">
+      <c r="C29" s="120"/>
+      <c r="D29" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -8680,10 +9220,10 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="135"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="141"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="26" t="s">
         <v>142</v>
       </c>
@@ -8695,10 +9235,10 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="135"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="141"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="26" t="s">
         <v>148</v>
       </c>
@@ -8710,10 +9250,10 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="135"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="141"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="26" t="s">
         <v>163</v>
       </c>
@@ -8725,10 +9265,10 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="135"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="141"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="127"/>
       <c r="E33" s="26" t="s">
         <v>187</v>
       </c>
@@ -8740,14 +9280,14 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="135" t="s">
+      <c r="A34" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="150"/>
-      <c r="D34" s="141" t="s">
+      <c r="C34" s="120"/>
+      <c r="D34" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -8761,10 +9301,10 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="135"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="141"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="26" t="s">
         <v>142</v>
       </c>
@@ -8776,10 +9316,10 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="135"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="141"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="26" t="s">
         <v>148</v>
       </c>
@@ -8791,10 +9331,10 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="135"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="141"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="26" t="s">
         <v>163</v>
       </c>
@@ -8806,10 +9346,10 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="135"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="141"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="26" t="s">
         <v>187</v>
       </c>
@@ -8821,14 +9361,14 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="149" t="s">
+      <c r="C39" s="137"/>
+      <c r="D39" s="139" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="28" t="s">
@@ -8841,11 +9381,11 @@
       <c r="H39" s="4"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="136"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="149"/>
+    <row r="40" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="122"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="28" t="s">
         <v>161</v>
       </c>
@@ -8857,14 +9397,14 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="135" t="s">
+      <c r="A41" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="149" t="s">
+      <c r="C41" s="137"/>
+      <c r="D41" s="139" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="28" t="s">
@@ -8877,11 +9417,11 @@
       <c r="H41" s="4"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="136"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="149"/>
+    <row r="42" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="122"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="139"/>
       <c r="E42" s="28" t="s">
         <v>161</v>
       </c>
@@ -8894,60 +9434,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -8960,6 +9446,60 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Failed">
@@ -8984,8 +9524,8 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:A30"/>
+      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9002,72 +9542,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="109"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="110">
+      <c r="H1" s="105">
         <v>45590</v>
       </c>
-      <c r="I1" s="111"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="117"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="100" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -9090,16 +9630,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -9122,16 +9662,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -9211,10 +9751,10 @@
       <c r="A9" s="167" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="139"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="168" t="s">
         <v>38</v>
       </c>
@@ -9222,179 +9762,201 @@
         <v>293</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>381</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>381</v>
+      </c>
       <c r="H9" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="35" t="s">
         <v>295</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="35" t="s">
+        <v>296</v>
+      </c>
       <c r="H10" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="136"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="141"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="35" t="s">
         <v>301</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="35" t="s">
+        <v>403</v>
+      </c>
       <c r="H11" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="136"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="35" t="s">
         <v>303</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="35" t="s">
+        <v>296</v>
+      </c>
       <c r="H12" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="136"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="35" t="s">
         <v>305</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="H13" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34" t="s">
         <v>306</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="34" t="s">
+        <v>149</v>
+      </c>
       <c r="H14" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34" t="s">
         <v>307</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="34" t="s">
+        <v>297</v>
+      </c>
       <c r="H15" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="136"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34" t="s">
         <v>308</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="34" t="s">
+        <v>298</v>
+      </c>
       <c r="H16" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="136"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="34" t="s">
         <v>309</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="34" t="s">
+        <v>299</v>
+      </c>
       <c r="H17" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="34" t="s">
         <v>310</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="35" t="s">
+        <v>296</v>
+      </c>
       <c r="H18" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="136"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="36" t="s">
         <v>311</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="34" t="s">
+        <v>300</v>
+      </c>
       <c r="H19" s="23" t="s">
         <v>349</v>
       </c>
@@ -9404,10 +9966,10 @@
       <c r="A20" s="167" t="s">
         <v>376</v>
       </c>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="139"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="168" t="s">
         <v>37</v>
       </c>
@@ -9417,177 +9979,199 @@
       <c r="F20" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="35" t="s">
+        <v>381</v>
+      </c>
       <c r="H20" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="136"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="35" t="s">
         <v>295</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="35" t="s">
+        <v>296</v>
+      </c>
       <c r="H21" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="141"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="35" t="s">
         <v>301</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="35" t="s">
+        <v>403</v>
+      </c>
       <c r="H22" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="136"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="35" t="s">
         <v>303</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="35" t="s">
+        <v>296</v>
+      </c>
       <c r="H23" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="136"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="141"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="35" t="s">
         <v>305</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="H24" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="136"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="141"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="34" t="s">
         <v>306</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="34" t="s">
+        <v>149</v>
+      </c>
       <c r="H25" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="34" t="s">
         <v>307</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="34" t="s">
+        <v>297</v>
+      </c>
       <c r="H26" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="136"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="34" t="s">
         <v>308</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="34" t="s">
+        <v>298</v>
+      </c>
       <c r="H27" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="34" t="s">
         <v>309</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="34" t="s">
+        <v>299</v>
+      </c>
       <c r="H28" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="136"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="34" t="s">
         <v>310</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="35" t="s">
+        <v>296</v>
+      </c>
       <c r="H29" s="23" t="s">
         <v>349</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="136"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="36" t="s">
         <v>311</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="34" t="s">
+        <v>300</v>
+      </c>
       <c r="H30" s="23" t="s">
         <v>349</v>
       </c>
@@ -9595,6 +10179,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="C9:C19"/>
+    <mergeCell ref="D9:D19"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="D20:D30"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
@@ -9605,14 +10197,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="C9:C19"/>
-    <mergeCell ref="D9:D19"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="D20:D30"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">

--- a/Business Directory Test Case.xlsx
+++ b/Business Directory Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wende\OneDrive\Desktop\QA Internship - Group 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65102F2E-26CD-4FC0-8C5B-E5907C3B49FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F1644-9BCB-4085-B702-931A67BE0ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Browse" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="408">
   <si>
     <t>Project Name</t>
   </si>
@@ -1495,6 +1495,18 @@
   </si>
   <si>
     <t>System navigated back to Business Owner homepage</t>
+  </si>
+  <si>
+    <t>Defect 011</t>
+  </si>
+  <si>
+    <t>Defect 012</t>
+  </si>
+  <si>
+    <t>Defect 013</t>
+  </si>
+  <si>
+    <t>Defect 014</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1967,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2048,9 +2060,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2164,40 +2173,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2244,25 +2271,48 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2284,25 +2334,21 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2316,97 +2362,69 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2716,9 +2734,9 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2735,72 +2753,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="104"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="105">
+      <c r="H1" s="110">
         <v>45590</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="108"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="112"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2823,16 +2841,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2855,16 +2873,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2964,37 +2982,37 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="46" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I10" s="49"/>
+      <c r="H10" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="86" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="33"/>
@@ -3010,10 +3028,10 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="85"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="25" t="s">
         <v>32</v>
       </c>
@@ -3029,10 +3047,10 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="85"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="25" t="s">
         <v>33</v>
       </c>
@@ -3048,65 +3066,65 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="84" t="s">
+      <c r="C14" s="95"/>
+      <c r="D14" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="46" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I14" s="49"/>
+      <c r="H14" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="88"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="51" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="H15" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I15" s="49"/>
+      <c r="H15" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="88"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="51" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="H16" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I16" s="49"/>
+      <c r="H16" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
@@ -3134,29 +3152,29 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I18" s="49"/>
+      <c r="H18" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
@@ -3184,41 +3202,41 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="45" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I20" s="49"/>
+      <c r="H20" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="119" t="s">
         <v>350</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="86" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="25" t="s">
@@ -3236,10 +3254,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="85"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="20" t="s">
         <v>46</v>
       </c>
@@ -3255,60 +3273,60 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="120" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I23" s="49"/>
+      <c r="H23" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="88"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="43" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I24" s="49"/>
+      <c r="H24" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="1:9" ht="312" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="85" t="s">
+      <c r="C25" s="96"/>
+      <c r="D25" s="86" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="25" t="s">
@@ -3317,19 +3335,21 @@
       <c r="F25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="25" t="s">
         <v>351</v>
       </c>
       <c r="H25" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="171" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="91"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="85"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="25" t="s">
         <v>50</v>
       </c>
@@ -3345,58 +3365,60 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="84" t="s">
+      <c r="C27" s="95"/>
+      <c r="D27" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="I27" s="49"/>
+      <c r="I27" s="172" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="51" t="s">
+      <c r="A28" s="93"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I28" s="49"/>
+      <c r="H28" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="84" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="86" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="25" t="s">
@@ -3414,12 +3436,12 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="86"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="25" t="s">
         <v>64</v>
       </c>
@@ -3435,12 +3457,12 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="87"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="85"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="25" t="s">
         <v>63</v>
       </c>
@@ -3456,83 +3478,83 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="84" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I32" s="49"/>
+      <c r="H32" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I32" s="48"/>
     </row>
     <row r="33" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="46" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="51" t="s">
+      <c r="D33" s="91"/>
+      <c r="E33" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I33" s="49"/>
+      <c r="H33" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="46" t="s">
+      <c r="A34" s="87"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="84"/>
-      <c r="E34" s="51" t="s">
+      <c r="D34" s="91"/>
+      <c r="E34" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I34" s="49"/>
+      <c r="H34" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="84" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="86" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="25" t="s">
@@ -3550,12 +3572,12 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="85"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="25" t="s">
         <v>75</v>
       </c>
@@ -3571,12 +3593,12 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="86"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="85"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="25" t="s">
         <v>75</v>
       </c>
@@ -3592,12 +3614,12 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="85"/>
+      <c r="D38" s="86"/>
       <c r="E38" s="25" t="s">
         <v>75</v>
       </c>
@@ -3613,12 +3635,12 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="87"/>
-      <c r="B39" s="86"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="85"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="25" t="s">
         <v>75</v>
       </c>
@@ -3634,12 +3656,12 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="86"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="85"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="25" t="s">
         <v>75</v>
       </c>
@@ -3655,148 +3677,148 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="84" t="s">
+      <c r="D41" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I41" s="49"/>
+      <c r="H41" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I41" s="48"/>
     </row>
     <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="54" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="84"/>
-      <c r="E42" s="51" t="s">
+      <c r="D42" s="91"/>
+      <c r="E42" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I42" s="49"/>
+      <c r="H42" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="54" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="84"/>
-      <c r="E43" s="51" t="s">
+      <c r="D43" s="91"/>
+      <c r="E43" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I43" s="49"/>
+      <c r="H43" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I43" s="48"/>
     </row>
     <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="54" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="51" t="s">
+      <c r="D44" s="91"/>
+      <c r="E44" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I44" s="49"/>
+      <c r="H44" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I44" s="48"/>
     </row>
     <row r="45" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="54" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="51" t="s">
+      <c r="D45" s="91"/>
+      <c r="E45" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I45" s="49"/>
+      <c r="H45" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I45" s="48"/>
     </row>
     <row r="46" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="82"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="54" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="51" t="s">
+      <c r="D46" s="91"/>
+      <c r="E46" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I46" s="49"/>
+      <c r="H46" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I46" s="48"/>
     </row>
     <row r="47" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="86" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="25" t="s">
@@ -3814,10 +3836,10 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="91"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="85"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="25" t="s">
         <v>98</v>
       </c>
@@ -3833,62 +3855,62 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I49" s="49"/>
+      <c r="H49" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I49" s="48"/>
     </row>
     <row r="50" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="51" t="s">
+      <c r="A50" s="93"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="H50" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I50" s="49"/>
+      <c r="H50" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I50" s="48"/>
     </row>
     <row r="51" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="114" t="s">
+      <c r="C51" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="86" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="25" t="s">
@@ -3906,10 +3928,10 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="91"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="90"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="25" t="s">
         <v>98</v>
       </c>
@@ -3925,12 +3947,12 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="91"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="114" t="s">
+      <c r="A53" s="98"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="90"/>
+      <c r="D53" s="96"/>
       <c r="E53" s="25" t="s">
         <v>96</v>
       </c>
@@ -3946,10 +3968,10 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="91"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="90"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="96"/>
       <c r="E54" s="25" t="s">
         <v>98</v>
       </c>
@@ -3965,100 +3987,100 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="115" t="s">
+      <c r="C55" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="51" t="s">
+      <c r="E55" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I55" s="49"/>
+      <c r="H55" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I55" s="48"/>
     </row>
     <row r="56" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="88"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="51" t="s">
+      <c r="A56" s="93"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="46" t="s">
+      <c r="G56" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I56" s="49"/>
+      <c r="H56" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I56" s="48"/>
     </row>
     <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="115" t="s">
+      <c r="A57" s="93"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="51" t="s">
+      <c r="D57" s="95"/>
+      <c r="E57" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I57" s="49"/>
+      <c r="H57" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I57" s="48"/>
     </row>
     <row r="58" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="51" t="s">
+      <c r="A58" s="93"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="46" t="s">
+      <c r="G58" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="H58" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I58" s="49"/>
+      <c r="H58" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I58" s="48"/>
     </row>
     <row r="59" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="87" t="s">
+      <c r="A59" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85" t="s">
+      <c r="C59" s="86"/>
+      <c r="D59" s="86" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="25" t="s">
@@ -4076,10 +4098,10 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
       <c r="E60" s="25" t="s">
         <v>111</v>
       </c>
@@ -4095,10 +4117,10 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="87"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="25" t="s">
         <v>122</v>
       </c>
@@ -4114,10 +4136,10 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="87"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
       <c r="E62" s="25" t="s">
         <v>114</v>
       </c>
@@ -4133,10 +4155,10 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="87"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
       <c r="E63" s="25" t="s">
         <v>125</v>
       </c>
@@ -4152,10 +4174,10 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="87"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
       <c r="E64" s="25" t="s">
         <v>126</v>
       </c>
@@ -4171,10 +4193,10 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="87"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
       <c r="E65" s="25" t="s">
         <v>116</v>
       </c>
@@ -4190,10 +4212,10 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="87"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
+      <c r="A66" s="85"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
       <c r="E66" s="25" t="s">
         <v>118</v>
       </c>
@@ -4209,10 +4231,10 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="87"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
       <c r="E67" s="25" t="s">
         <v>120</v>
       </c>
@@ -4228,10 +4250,10 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="87"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
+      <c r="A68" s="85"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
       <c r="E68" s="25" t="s">
         <v>128</v>
       </c>
@@ -4247,248 +4269,220 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="82" t="s">
+      <c r="A69" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84" t="s">
+      <c r="C69" s="91"/>
+      <c r="D69" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G69" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="H69" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I69" s="49"/>
+      <c r="H69" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I69" s="48"/>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="82"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="51" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="46" t="s">
+      <c r="F70" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I70" s="49"/>
+      <c r="H70" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I70" s="48"/>
     </row>
     <row r="71" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="82"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="51" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="F71" s="46" t="s">
+      <c r="F71" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="46" t="s">
+      <c r="G71" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="H71" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I71" s="49"/>
+      <c r="H71" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I71" s="48"/>
     </row>
     <row r="72" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" s="82"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="51" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="46" t="s">
+      <c r="G72" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="H72" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I72" s="49"/>
+      <c r="H72" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I72" s="48"/>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="82"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="51" t="s">
+      <c r="A73" s="87"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="46" t="s">
+      <c r="G73" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="H73" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I73" s="49"/>
+      <c r="H73" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I73" s="48"/>
     </row>
     <row r="74" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="82"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="51" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F74" s="46" t="s">
+      <c r="F74" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="G74" s="46" t="s">
+      <c r="G74" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="H74" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I74" s="49"/>
+      <c r="H74" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I74" s="48"/>
     </row>
     <row r="75" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="82"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="51" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="46" t="s">
+      <c r="G75" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="H75" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I75" s="49"/>
+      <c r="H75" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I75" s="48"/>
     </row>
     <row r="76" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="82"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="51" t="s">
+      <c r="A76" s="87"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F76" s="46" t="s">
+      <c r="F76" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="G76" s="46" t="s">
+      <c r="G76" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="H76" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I76" s="49"/>
+      <c r="H76" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I76" s="48"/>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="82"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="51" t="s">
+      <c r="A77" s="87"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="G77" s="46" t="s">
+      <c r="G77" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="H77" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="I77" s="49"/>
+      <c r="H77" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="I77" s="48"/>
     </row>
     <row r="78" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="116"/>
-      <c r="B78" s="117"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="118"/>
-      <c r="E78" s="56" t="s">
+      <c r="A78" s="88"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="57" t="s">
+      <c r="F78" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="G78" s="57" t="s">
+      <c r="G78" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="H78" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="I78" s="59"/>
+      <c r="H78" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="I78" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:Z78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="72">
-    <mergeCell ref="B59:B68"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:D78"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="B25:B26"/>
@@ -4501,22 +4495,50 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:D78"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
@@ -4542,7 +4564,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G42" sqref="G9:G42"/>
     </sheetView>
   </sheetViews>
@@ -4560,72 +4582,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="104"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="105">
+      <c r="H1" s="110">
         <v>45590</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="108"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="112"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="105" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4648,16 +4670,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4680,16 +4702,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4766,14 +4788,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="127" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -4791,10 +4813,10 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="122"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="128"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="27" t="s">
         <v>133</v>
       </c>
@@ -4810,58 +4832,58 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="119" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="169" t="s">
+      <c r="G11" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="H11" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I11" s="49"/>
+      <c r="H11" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="130"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="61" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I12" s="49"/>
+      <c r="H12" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="127" t="s">
+      <c r="C13" s="139"/>
+      <c r="D13" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -4879,10 +4901,10 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="122"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="27" t="s">
         <v>135</v>
       </c>
@@ -4898,58 +4920,58 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="119" t="s">
+      <c r="C15" s="125"/>
+      <c r="D15" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="169" t="s">
+      <c r="G15" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="H15" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I15" s="49"/>
+      <c r="H15" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="61" t="s">
+      <c r="A16" s="122"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="H16" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I16" s="49"/>
+      <c r="H16" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="127" t="s">
+      <c r="C17" s="139"/>
+      <c r="D17" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -4967,10 +4989,10 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="122"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="27" t="s">
         <v>136</v>
       </c>
@@ -4986,58 +5008,58 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="119" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="H19" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I19" s="49"/>
+      <c r="H19" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="130"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="61" t="s">
+      <c r="A20" s="122"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="H20" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I20" s="49"/>
+      <c r="H20" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="127" t="s">
+      <c r="C21" s="139"/>
+      <c r="D21" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -5055,10 +5077,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="141"/>
       <c r="E22" s="27" t="s">
         <v>144</v>
       </c>
@@ -5074,58 +5096,58 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="121" t="s">
         <v>171</v>
       </c>
       <c r="B23" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="119" t="s">
+      <c r="C23" s="125"/>
+      <c r="D23" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="H23" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I23" s="49"/>
+      <c r="H23" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="130"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="61" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="H24" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I24" s="49"/>
+      <c r="H24" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="127" t="s">
+      <c r="C25" s="139"/>
+      <c r="D25" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -5143,10 +5165,10 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="127"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="27" t="s">
         <v>145</v>
       </c>
@@ -5162,58 +5184,58 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="119" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="H27" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I27" s="49"/>
+      <c r="H27" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="130"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="61" t="s">
+      <c r="A28" s="122"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="H28" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I28" s="49"/>
+      <c r="H28" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="127" t="s">
+      <c r="C29" s="152"/>
+      <c r="D29" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -5231,10 +5253,10 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="121"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="127"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="26" t="s">
         <v>142</v>
       </c>
@@ -5250,10 +5272,10 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="121"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="127"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="26" t="s">
         <v>148</v>
       </c>
@@ -5269,10 +5291,10 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="121"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="127"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="26" t="s">
         <v>163</v>
       </c>
@@ -5288,10 +5310,10 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="121"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="127"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="26" t="s">
         <v>164</v>
       </c>
@@ -5307,115 +5329,115 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="129" t="s">
+      <c r="A34" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="131" t="s">
+      <c r="B34" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="119" t="s">
+      <c r="C34" s="146"/>
+      <c r="D34" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="H34" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I34" s="49"/>
+      <c r="H34" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="129"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="60" t="s">
+      <c r="A35" s="121"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="169" t="s">
+      <c r="G35" s="81" t="s">
         <v>397</v>
       </c>
-      <c r="H35" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I35" s="49"/>
+      <c r="H35" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I35" s="48"/>
     </row>
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="129"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="60" t="s">
+      <c r="A36" s="121"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="169" t="s">
+      <c r="G36" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I36" s="49"/>
+      <c r="H36" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I36" s="48"/>
     </row>
     <row r="37" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="129"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="60" t="s">
+      <c r="A37" s="121"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="169" t="s">
+      <c r="G37" s="81" t="s">
         <v>396</v>
       </c>
-      <c r="H37" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I37" s="49"/>
+      <c r="H37" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I37" s="48"/>
     </row>
     <row r="38" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="129"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="60" t="s">
+      <c r="A38" s="121"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="H38" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I38" s="49"/>
+      <c r="H38" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="139" t="s">
+      <c r="C39" s="149"/>
+      <c r="D39" s="151" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="28" t="s">
@@ -5424,7 +5446,7 @@
       <c r="F39" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="G39" s="170" t="s">
+      <c r="G39" s="82" t="s">
         <v>398</v>
       </c>
       <c r="H39" s="23" t="s">
@@ -5432,11 +5454,11 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="122"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="139"/>
+    <row r="40" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="136"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="28" t="s">
         <v>161</v>
       </c>
@@ -5452,58 +5474,58 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="129" t="s">
+      <c r="A41" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="131" t="s">
+      <c r="B41" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="145"/>
-      <c r="D41" s="146" t="s">
+      <c r="C41" s="133"/>
+      <c r="D41" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="62" t="s">
+      <c r="F41" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="171" t="s">
+      <c r="G41" s="83" t="s">
         <v>398</v>
       </c>
-      <c r="H41" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I41" s="49"/>
-    </row>
-    <row r="42" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="130"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="62" t="s">
+      <c r="H41" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I41" s="48"/>
+    </row>
+    <row r="42" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="122"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="H42" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I42" s="49"/>
+      <c r="H42" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="123" t="s">
+      <c r="B43" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="127" t="s">
+      <c r="C43" s="139"/>
+      <c r="D43" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -5521,10 +5543,10 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="122"/>
-      <c r="B44" s="124"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="127"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="141"/>
       <c r="E44" s="26" t="s">
         <v>151</v>
       </c>
@@ -5540,10 +5562,10 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="122"/>
-      <c r="B45" s="124"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="127"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="141"/>
       <c r="E45" s="27" t="s">
         <v>153</v>
       </c>
@@ -5559,77 +5581,77 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="131" t="s">
+      <c r="B46" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="133"/>
-      <c r="D46" s="119" t="s">
+      <c r="C46" s="125"/>
+      <c r="D46" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="60" t="s">
+      <c r="G46" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="H46" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I46" s="49"/>
+      <c r="H46" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I46" s="48"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="130"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="60" t="s">
+      <c r="A47" s="122"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="169" t="s">
+      <c r="G47" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I47" s="49"/>
+      <c r="H47" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I47" s="48"/>
     </row>
     <row r="48" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="130"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="61" t="s">
+      <c r="A48" s="122"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="G48" s="63" t="s">
+      <c r="G48" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="H48" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I48" s="49"/>
+      <c r="H48" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I48" s="48"/>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="125"/>
-      <c r="D49" s="127" t="s">
+      <c r="C49" s="139"/>
+      <c r="D49" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="26" t="s">
@@ -5647,10 +5669,10 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="122"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="127"/>
+      <c r="A50" s="136"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="141"/>
       <c r="E50" s="26" t="s">
         <v>151</v>
       </c>
@@ -5666,10 +5688,10 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="122"/>
-      <c r="B51" s="124"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="127"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="141"/>
       <c r="E51" s="26" t="s">
         <v>154</v>
       </c>
@@ -5685,77 +5707,77 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="147" t="s">
+      <c r="B52" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="133"/>
-      <c r="D52" s="119" t="s">
+      <c r="C52" s="125"/>
+      <c r="D52" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="60" t="s">
+      <c r="F52" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="60" t="s">
+      <c r="G52" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="H52" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I52" s="49"/>
+      <c r="H52" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I52" s="48"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="130"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="60" t="s">
+      <c r="A53" s="122"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="169" t="s">
+      <c r="G53" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="H53" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I53" s="49"/>
+      <c r="H53" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I53" s="48"/>
     </row>
     <row r="54" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="130"/>
-      <c r="B54" s="132"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="60" t="s">
+      <c r="A54" s="122"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F54" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="169" t="s">
+      <c r="G54" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="H54" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I54" s="49"/>
+      <c r="H54" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I54" s="48"/>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="123" t="s">
+      <c r="B55" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="125"/>
-      <c r="D55" s="127" t="s">
+      <c r="C55" s="139"/>
+      <c r="D55" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -5773,10 +5795,10 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="122"/>
-      <c r="B56" s="124"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="127"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
       <c r="E56" s="26" t="s">
         <v>151</v>
       </c>
@@ -5792,10 +5814,10 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="122"/>
-      <c r="B57" s="124"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="127"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="141"/>
       <c r="E57" s="27" t="s">
         <v>157</v>
       </c>
@@ -5811,101 +5833,115 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="131" t="s">
+      <c r="B58" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="133"/>
-      <c r="D58" s="119" t="s">
+      <c r="C58" s="125"/>
+      <c r="D58" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="E58" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F58" s="60" t="s">
+      <c r="F58" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="60" t="s">
+      <c r="G58" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="H58" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I58" s="49"/>
+      <c r="H58" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I58" s="48"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="130"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="60" t="s">
+      <c r="A59" s="122"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="169" t="s">
+      <c r="G59" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="H59" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="I59" s="49"/>
+      <c r="H59" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I59" s="48"/>
     </row>
     <row r="60" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="148"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="150"/>
-      <c r="D60" s="151"/>
-      <c r="E60" s="64" t="s">
+      <c r="A60" s="128"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="F60" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="64" t="s">
+      <c r="G60" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="H60" s="55" t="s">
-        <v>349</v>
-      </c>
-      <c r="I60" s="59"/>
+      <c r="H60" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="I60" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:Z8" xr:uid="{994A2F35-56CD-40C4-AC94-DD259B9B9C2F}"/>
   <mergeCells count="90">
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B29:B33"/>
@@ -5922,50 +5958,36 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Failed">
@@ -5990,8 +6012,8 @@
   <dimension ref="A1:Z125"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6008,72 +6030,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="104"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="105">
+      <c r="H1" s="110">
         <v>45590</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="108"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="112"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="105" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -6096,16 +6118,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -6128,16 +6150,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6214,2322 +6236,2376 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="158" t="s">
         <v>236</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158" t="s">
+      <c r="C9" s="154"/>
+      <c r="D9" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="72" t="s">
+      <c r="A10" s="158"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="72" t="s">
+      <c r="A11" s="158"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="171" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="155"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="72" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="155"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="72" t="s">
+      <c r="A13" s="158"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="155"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="72" t="s">
+      <c r="A14" s="158"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="155"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="72" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="173" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="155"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="72" t="s">
+      <c r="A16" s="158"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="155"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="72" t="s">
+      <c r="A17" s="158"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="155"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="72" t="s">
+      <c r="A18" s="158"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="173" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="155"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="72" t="s">
+      <c r="A19" s="158"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="153"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="72" t="s">
+      <c r="A20" s="159"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="70" t="s">
         <v>363</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="158" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158" t="s">
+      <c r="C21" s="154"/>
+      <c r="D21" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="72" t="s">
+      <c r="A22" s="158"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="72" t="s">
+      <c r="A23" s="158"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="171" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="155"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="72" t="s">
+      <c r="A24" s="158"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="72" t="s">
+      <c r="A25" s="158"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="155"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="72" t="s">
+      <c r="A26" s="158"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="72" t="s">
+      <c r="G26" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="155"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="72" t="s">
+      <c r="A27" s="158"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="H27" s="71" t="s">
+      <c r="H27" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="173" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="155"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="72" t="s">
+      <c r="A28" s="158"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="72" t="s">
+      <c r="A29" s="158"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="72" t="s">
+      <c r="A30" s="158"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="H30" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="173" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="72" t="s">
+      <c r="A31" s="158"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="H31" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="153"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="72" t="s">
+      <c r="A32" s="159"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="F32" s="72" t="s">
+      <c r="F32" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="70" t="s">
         <v>363</v>
       </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="160" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158" t="s">
+      <c r="C33" s="154"/>
+      <c r="D33" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="G33" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="155"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="72" t="s">
+      <c r="A34" s="158"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="155"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="72" t="s">
+      <c r="A35" s="158"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="72" t="s">
+      <c r="F35" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="155"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="72" t="s">
+      <c r="A36" s="158"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="H36" s="71" t="s">
+      <c r="H36" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="155"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="72" t="s">
+      <c r="A37" s="158"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="69" t="s">
+      <c r="A38" s="158"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="H38" s="71" t="s">
+      <c r="H38" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="155"/>
-      <c r="B39" s="156"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="69" t="s">
+      <c r="A39" s="158"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H39" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="155"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="69" t="s">
+      <c r="A40" s="158"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="H40" s="71" t="s">
+      <c r="H40" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="69" t="s">
+      <c r="A41" s="158"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="68" t="s">
         <v>369</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="G41" s="69" t="s">
+      <c r="G41" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="155"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="69" t="s">
+      <c r="A42" s="158"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="H42" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="155"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="69" t="s">
+      <c r="A43" s="158"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F43" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="H43" s="71" t="s">
+      <c r="H43" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="155"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="69" t="s">
+      <c r="A44" s="158"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="F44" s="69" t="s">
+      <c r="F44" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G44" s="69" t="s">
+      <c r="G44" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="H44" s="71" t="s">
+      <c r="H44" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="155"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="72" t="s">
+      <c r="A45" s="158"/>
+      <c r="B45" s="160"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="F45" s="72" t="s">
+      <c r="F45" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="G45" s="72" t="s">
+      <c r="G45" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="H45" s="71" t="s">
+      <c r="H45" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="155"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="69" t="s">
+      <c r="A46" s="158"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="F46" s="69" t="s">
+      <c r="F46" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="G46" s="69" t="s">
+      <c r="G46" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="155"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="69" t="s">
+      <c r="A47" s="158"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="68" t="s">
         <v>378</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="H47" s="71" t="s">
+      <c r="H47" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="160" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="157"/>
-      <c r="D48" s="158" t="s">
+      <c r="C48" s="154"/>
+      <c r="D48" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="E48" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="H48" s="71" t="s">
+      <c r="H48" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="155"/>
-      <c r="B49" s="156"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="72" t="s">
+      <c r="A49" s="158"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="72" t="s">
+      <c r="F49" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="G49" s="72" t="s">
+      <c r="G49" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="H49" s="71" t="s">
+      <c r="H49" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="155"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="72" t="s">
+      <c r="A50" s="158"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="F50" s="72" t="s">
+      <c r="F50" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="72" t="s">
+      <c r="G50" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="H50" s="71" t="s">
+      <c r="H50" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="155"/>
-      <c r="B51" s="156"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="72" t="s">
+      <c r="A51" s="158"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="72" t="s">
+      <c r="F51" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="G51" s="72" t="s">
+      <c r="G51" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="H51" s="71" t="s">
+      <c r="H51" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="155"/>
-      <c r="B52" s="156"/>
-      <c r="C52" s="157"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="72" t="s">
+      <c r="A52" s="158"/>
+      <c r="B52" s="160"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="F52" s="72" t="s">
+      <c r="F52" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="G52" s="72" t="s">
+      <c r="G52" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="155"/>
-      <c r="B53" s="156"/>
-      <c r="C53" s="157"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="69" t="s">
+      <c r="A53" s="158"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="F53" s="69" t="s">
+      <c r="F53" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="G53" s="69" t="s">
+      <c r="G53" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="H53" s="71" t="s">
+      <c r="H53" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="155"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="69" t="s">
+      <c r="A54" s="158"/>
+      <c r="B54" s="160"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="F54" s="69" t="s">
+      <c r="F54" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="69" t="s">
+      <c r="G54" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="H54" s="71" t="s">
+      <c r="H54" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="155"/>
-      <c r="B55" s="156"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="69" t="s">
+      <c r="A55" s="158"/>
+      <c r="B55" s="160"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="G55" s="69" t="s">
+      <c r="G55" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="H55" s="71" t="s">
+      <c r="H55" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="155"/>
-      <c r="B56" s="156"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="69" t="s">
+      <c r="A56" s="158"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="68" t="s">
         <v>369</v>
       </c>
-      <c r="F56" s="69" t="s">
+      <c r="F56" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="G56" s="69" t="s">
+      <c r="G56" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="H56" s="71" t="s">
+      <c r="H56" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="155"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="69" t="s">
+      <c r="A57" s="158"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="F57" s="69" t="s">
+      <c r="F57" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="H57" s="71" t="s">
+      <c r="H57" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="155"/>
-      <c r="B58" s="156"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="69" t="s">
+      <c r="A58" s="158"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="F58" s="69" t="s">
+      <c r="F58" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="69" t="s">
+      <c r="G58" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="H58" s="71" t="s">
+      <c r="H58" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="155"/>
-      <c r="B59" s="156"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="69" t="s">
+      <c r="A59" s="158"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G59" s="69" t="s">
+      <c r="G59" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="H59" s="71" t="s">
+      <c r="H59" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="155"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="72" t="s">
+      <c r="A60" s="158"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="H60" s="71" t="s">
+      <c r="H60" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="155"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="69" t="s">
+      <c r="A61" s="158"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="G61" s="69" t="s">
+      <c r="G61" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="H61" s="71" t="s">
+      <c r="H61" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="155"/>
-      <c r="B62" s="156"/>
-      <c r="C62" s="157"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="69" t="s">
+      <c r="A62" s="158"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="68" t="s">
         <v>378</v>
       </c>
-      <c r="F62" s="69" t="s">
+      <c r="F62" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G62" s="69" t="s">
+      <c r="G62" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="H62" s="71" t="s">
+      <c r="H62" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="68" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="69" t="s">
+      <c r="E63" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="F63" s="69" t="s">
+      <c r="F63" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="G63" s="69" t="s">
+      <c r="G63" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="H63" s="71" t="s">
+      <c r="H63" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68" t="s">
+      <c r="C64" s="66"/>
+      <c r="D64" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="69" t="s">
+      <c r="E64" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="F64" s="69" t="s">
+      <c r="F64" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="G64" s="69" t="s">
+      <c r="G64" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="H64" s="71" t="s">
+      <c r="H64" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="68" t="s">
+      <c r="C65" s="66"/>
+      <c r="D65" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="69" t="s">
+      <c r="E65" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="69" t="s">
+      <c r="F65" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="G65" s="69" t="s">
+      <c r="G65" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="68" t="s">
+      <c r="C66" s="66"/>
+      <c r="D66" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="69" t="s">
+      <c r="E66" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="69" t="s">
+      <c r="F66" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="G66" s="69" t="s">
+      <c r="G66" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="H66" s="71" t="s">
+      <c r="H66" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="155" t="s">
+      <c r="A67" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="B67" s="156" t="s">
+      <c r="B67" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="C67" s="166"/>
-      <c r="D67" s="158" t="s">
+      <c r="C67" s="167"/>
+      <c r="D67" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="69" t="s">
+      <c r="E67" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="F67" s="69" t="s">
+      <c r="F67" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="G67" s="69" t="s">
+      <c r="G67" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="H67" s="71" t="s">
+      <c r="H67" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="155"/>
-      <c r="B68" s="156"/>
-      <c r="C68" s="166"/>
-      <c r="D68" s="158"/>
-      <c r="E68" s="72" t="s">
+      <c r="A68" s="158"/>
+      <c r="B68" s="160"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="F68" s="72" t="s">
+      <c r="F68" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="G68" s="70" t="s">
+      <c r="G68" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="H68" s="71" t="s">
+      <c r="H68" s="70" t="s">
         <v>208</v>
       </c>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="155"/>
-      <c r="B69" s="156"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="158"/>
-      <c r="E69" s="69" t="s">
+      <c r="A69" s="158"/>
+      <c r="B69" s="160"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="F69" s="69" t="s">
+      <c r="F69" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="G69" s="69" t="s">
+      <c r="G69" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="H69" s="71" t="s">
+      <c r="H69" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="155"/>
-      <c r="B70" s="156"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="158"/>
-      <c r="E70" s="69" t="s">
+      <c r="A70" s="158"/>
+      <c r="B70" s="160"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="F70" s="69" t="s">
+      <c r="F70" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="G70" s="69" t="s">
+      <c r="G70" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="H70" s="71" t="s">
+      <c r="H70" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="155"/>
-      <c r="B71" s="156"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="158"/>
-      <c r="E71" s="69" t="s">
+      <c r="A71" s="158"/>
+      <c r="B71" s="160"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="F71" s="69" t="s">
+      <c r="F71" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="G71" s="69" t="s">
+      <c r="G71" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="H71" s="71" t="s">
+      <c r="H71" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="155"/>
-      <c r="B72" s="156"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="158"/>
-      <c r="E72" s="69" t="s">
+      <c r="A72" s="158"/>
+      <c r="B72" s="160"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="F72" s="69" t="s">
+      <c r="F72" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="G72" s="69" t="s">
+      <c r="G72" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="H72" s="71" t="s">
+      <c r="H72" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="155"/>
-      <c r="B73" s="156"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="158"/>
-      <c r="E73" s="69" t="s">
+      <c r="A73" s="158"/>
+      <c r="B73" s="160"/>
+      <c r="C73" s="167"/>
+      <c r="D73" s="156"/>
+      <c r="E73" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="F73" s="69" t="s">
+      <c r="F73" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="G73" s="74" t="s">
+      <c r="G73" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="H73" s="71" t="s">
+      <c r="H73" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="155"/>
-      <c r="B74" s="156"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="158"/>
-      <c r="E74" s="69" t="s">
+      <c r="A74" s="158"/>
+      <c r="B74" s="160"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="156"/>
+      <c r="E74" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F74" s="69" t="s">
+      <c r="F74" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="G74" s="69" t="s">
+      <c r="G74" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="H74" s="71" t="s">
+      <c r="H74" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="155"/>
-      <c r="B75" s="156"/>
-      <c r="C75" s="166"/>
-      <c r="D75" s="158"/>
-      <c r="E75" s="69" t="s">
+      <c r="A75" s="158"/>
+      <c r="B75" s="160"/>
+      <c r="C75" s="167"/>
+      <c r="D75" s="156"/>
+      <c r="E75" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="F75" s="69" t="s">
+      <c r="F75" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="G75" s="69" t="s">
+      <c r="G75" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="H75" s="71" t="s">
+      <c r="H75" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="155"/>
-      <c r="B76" s="156"/>
-      <c r="C76" s="166"/>
-      <c r="D76" s="158"/>
-      <c r="E76" s="69" t="s">
+      <c r="A76" s="158"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="F76" s="69" t="s">
+      <c r="F76" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G76" s="69" t="s">
+      <c r="G76" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="H76" s="71" t="s">
+      <c r="H76" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="155" t="s">
+      <c r="A77" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="B77" s="156" t="s">
+      <c r="B77" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="C77" s="166"/>
-      <c r="D77" s="158" t="s">
+      <c r="C77" s="167"/>
+      <c r="D77" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="69" t="s">
+      <c r="E77" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="F77" s="69" t="s">
+      <c r="F77" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="G77" s="69" t="s">
+      <c r="G77" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="H77" s="71" t="s">
+      <c r="H77" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="155"/>
-      <c r="B78" s="156"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="158"/>
-      <c r="E78" s="72" t="s">
+      <c r="A78" s="158"/>
+      <c r="B78" s="160"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="F78" s="72" t="s">
+      <c r="F78" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="G78" s="70" t="s">
+      <c r="G78" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="H78" s="71" t="s">
+      <c r="H78" s="70" t="s">
         <v>208</v>
       </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="155"/>
-      <c r="B79" s="156"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="158"/>
-      <c r="E79" s="69" t="s">
+      <c r="A79" s="158"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="F79" s="69" t="s">
+      <c r="F79" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="G79" s="69" t="s">
+      <c r="G79" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="H79" s="71" t="s">
+      <c r="H79" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="155"/>
-      <c r="B80" s="156"/>
-      <c r="C80" s="166"/>
-      <c r="D80" s="158"/>
-      <c r="E80" s="69" t="s">
+      <c r="A80" s="158"/>
+      <c r="B80" s="160"/>
+      <c r="C80" s="167"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="G80" s="69" t="s">
+      <c r="G80" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="H80" s="71" t="s">
+      <c r="H80" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="155"/>
-      <c r="B81" s="156"/>
-      <c r="C81" s="166"/>
-      <c r="D81" s="158"/>
-      <c r="E81" s="69" t="s">
+      <c r="A81" s="158"/>
+      <c r="B81" s="160"/>
+      <c r="C81" s="167"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="F81" s="69" t="s">
+      <c r="F81" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="G81" s="69" t="s">
+      <c r="G81" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="H81" s="71" t="s">
+      <c r="H81" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="155"/>
-      <c r="B82" s="156"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="158"/>
-      <c r="E82" s="69" t="s">
+      <c r="A82" s="158"/>
+      <c r="B82" s="160"/>
+      <c r="C82" s="167"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="F82" s="69" t="s">
+      <c r="F82" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="G82" s="69" t="s">
+      <c r="G82" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="H82" s="71" t="s">
+      <c r="H82" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="155"/>
-      <c r="B83" s="156"/>
-      <c r="C83" s="166"/>
-      <c r="D83" s="158"/>
-      <c r="E83" s="69" t="s">
+      <c r="A83" s="158"/>
+      <c r="B83" s="160"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="F83" s="69" t="s">
+      <c r="F83" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="G83" s="74" t="s">
+      <c r="G83" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="H83" s="71" t="s">
+      <c r="H83" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="155"/>
-      <c r="B84" s="156"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="158"/>
-      <c r="E84" s="69" t="s">
+      <c r="A84" s="158"/>
+      <c r="B84" s="160"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="69" t="s">
+      <c r="F84" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="G84" s="69" t="s">
+      <c r="G84" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="H84" s="71" t="s">
+      <c r="H84" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="155"/>
-      <c r="B85" s="156"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="158"/>
-      <c r="E85" s="69" t="s">
+      <c r="A85" s="158"/>
+      <c r="B85" s="160"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="156"/>
+      <c r="E85" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="F85" s="69" t="s">
+      <c r="F85" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="G85" s="69" t="s">
+      <c r="G85" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="H85" s="71" t="s">
+      <c r="H85" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="155"/>
-      <c r="B86" s="156"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="158"/>
-      <c r="E86" s="69" t="s">
+      <c r="A86" s="158"/>
+      <c r="B86" s="160"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="F86" s="69" t="s">
+      <c r="F86" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="G86" s="69" t="s">
+      <c r="G86" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="H86" s="71" t="s">
+      <c r="H86" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="153" t="s">
+      <c r="A87" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="152" t="s">
+      <c r="B87" s="168" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="154"/>
-      <c r="D87" s="154" t="s">
+      <c r="C87" s="157"/>
+      <c r="D87" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="E87" s="72" t="s">
+      <c r="E87" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="F87" s="72" t="s">
+      <c r="F87" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="G87" s="72" t="s">
+      <c r="G87" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="H87" s="71" t="s">
+      <c r="H87" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="153"/>
-      <c r="B88" s="152"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="72" t="s">
+      <c r="A88" s="159"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="157"/>
+      <c r="D88" s="157"/>
+      <c r="E88" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="F88" s="72" t="s">
+      <c r="F88" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="G88" s="72" t="s">
+      <c r="G88" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="H88" s="71" t="s">
+      <c r="H88" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="153"/>
-      <c r="B89" s="152"/>
-      <c r="C89" s="154"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="72" t="s">
+      <c r="A89" s="159"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="157"/>
+      <c r="D89" s="157"/>
+      <c r="E89" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="72" t="s">
+      <c r="F89" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="G89" s="72" t="s">
+      <c r="G89" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="H89" s="71" t="s">
+      <c r="H89" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="153"/>
-      <c r="B90" s="152"/>
-      <c r="C90" s="154"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="72" t="s">
+      <c r="A90" s="159"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="157"/>
+      <c r="D90" s="157"/>
+      <c r="E90" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="F90" s="72" t="s">
+      <c r="F90" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="G90" s="72" t="s">
+      <c r="G90" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="H90" s="71" t="s">
+      <c r="H90" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="153"/>
-      <c r="B91" s="152"/>
-      <c r="C91" s="154"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="72" t="s">
+      <c r="A91" s="159"/>
+      <c r="B91" s="168"/>
+      <c r="C91" s="157"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="F91" s="72" t="s">
+      <c r="F91" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="G91" s="72" t="s">
+      <c r="G91" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="H91" s="71" t="s">
+      <c r="H91" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="153"/>
-      <c r="B92" s="152"/>
-      <c r="C92" s="154"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="72" t="s">
+      <c r="A92" s="159"/>
+      <c r="B92" s="168"/>
+      <c r="C92" s="157"/>
+      <c r="D92" s="157"/>
+      <c r="E92" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="F92" s="72" t="s">
+      <c r="F92" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="G92" s="72" t="s">
+      <c r="G92" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="H92" s="71" t="s">
+      <c r="H92" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="153"/>
-      <c r="B93" s="152"/>
-      <c r="C93" s="154"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="72" t="s">
+      <c r="A93" s="159"/>
+      <c r="B93" s="168"/>
+      <c r="C93" s="157"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="F93" s="72" t="s">
+      <c r="F93" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="G93" s="72" t="s">
+      <c r="G93" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="H93" s="71" t="s">
+      <c r="H93" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="153" t="s">
+      <c r="A94" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="B94" s="152" t="s">
+      <c r="B94" s="168" t="s">
         <v>257</v>
       </c>
-      <c r="C94" s="154"/>
-      <c r="D94" s="154" t="s">
+      <c r="C94" s="157"/>
+      <c r="D94" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="72" t="s">
+      <c r="E94" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="F94" s="72" t="s">
+      <c r="F94" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="G94" s="72" t="s">
+      <c r="G94" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="H94" s="71" t="s">
+      <c r="H94" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="153"/>
-      <c r="B95" s="152"/>
-      <c r="C95" s="154"/>
-      <c r="D95" s="154"/>
-      <c r="E95" s="72" t="s">
+      <c r="A95" s="159"/>
+      <c r="B95" s="168"/>
+      <c r="C95" s="157"/>
+      <c r="D95" s="157"/>
+      <c r="E95" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="F95" s="72" t="s">
+      <c r="F95" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="G95" s="72" t="s">
+      <c r="G95" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="H95" s="71" t="s">
+      <c r="H95" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="153"/>
-      <c r="B96" s="152"/>
-      <c r="C96" s="154"/>
-      <c r="D96" s="154"/>
-      <c r="E96" s="72" t="s">
+      <c r="A96" s="159"/>
+      <c r="B96" s="168"/>
+      <c r="C96" s="157"/>
+      <c r="D96" s="157"/>
+      <c r="E96" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="F96" s="72" t="s">
+      <c r="F96" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="G96" s="72" t="s">
+      <c r="G96" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="H96" s="71" t="s">
+      <c r="H96" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="153"/>
-      <c r="B97" s="152"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="72" t="s">
+      <c r="A97" s="159"/>
+      <c r="B97" s="168"/>
+      <c r="C97" s="157"/>
+      <c r="D97" s="157"/>
+      <c r="E97" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="F97" s="72" t="s">
+      <c r="F97" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="G97" s="72" t="s">
+      <c r="G97" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="H97" s="71" t="s">
+      <c r="H97" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="153"/>
-      <c r="B98" s="152"/>
-      <c r="C98" s="154"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="72" t="s">
+      <c r="A98" s="159"/>
+      <c r="B98" s="168"/>
+      <c r="C98" s="157"/>
+      <c r="D98" s="157"/>
+      <c r="E98" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="F98" s="72" t="s">
+      <c r="F98" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="G98" s="72" t="s">
+      <c r="G98" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="H98" s="71" t="s">
+      <c r="H98" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="153"/>
-      <c r="B99" s="152"/>
-      <c r="C99" s="154"/>
-      <c r="D99" s="154"/>
-      <c r="E99" s="72" t="s">
+      <c r="A99" s="159"/>
+      <c r="B99" s="168"/>
+      <c r="C99" s="157"/>
+      <c r="D99" s="157"/>
+      <c r="E99" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="F99" s="72" t="s">
+      <c r="F99" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="G99" s="72" t="s">
+      <c r="G99" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="H99" s="71" t="s">
+      <c r="H99" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="153"/>
-      <c r="B100" s="152"/>
-      <c r="C100" s="154"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="72" t="s">
+      <c r="A100" s="159"/>
+      <c r="B100" s="168"/>
+      <c r="C100" s="157"/>
+      <c r="D100" s="157"/>
+      <c r="E100" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="F100" s="72" t="s">
+      <c r="F100" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="G100" s="72" t="s">
+      <c r="G100" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="H100" s="71" t="s">
+      <c r="H100" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="153" t="s">
+      <c r="A101" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="B101" s="152" t="s">
+      <c r="B101" s="168" t="s">
         <v>272</v>
       </c>
-      <c r="C101" s="154"/>
-      <c r="D101" s="154" t="s">
+      <c r="C101" s="157"/>
+      <c r="D101" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="72" t="s">
+      <c r="E101" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="F101" s="72" t="s">
+      <c r="F101" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="G101" s="72" t="s">
+      <c r="G101" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="H101" s="71" t="s">
+      <c r="H101" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="153"/>
-      <c r="B102" s="152"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="72" t="s">
+      <c r="A102" s="159"/>
+      <c r="B102" s="168"/>
+      <c r="C102" s="157"/>
+      <c r="D102" s="157"/>
+      <c r="E102" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="F102" s="72" t="s">
+      <c r="F102" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="G102" s="72" t="s">
+      <c r="G102" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="H102" s="71" t="s">
+      <c r="H102" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A103" s="153"/>
-      <c r="B103" s="152"/>
-      <c r="C103" s="154"/>
-      <c r="D103" s="154"/>
-      <c r="E103" s="72" t="s">
+      <c r="A103" s="159"/>
+      <c r="B103" s="168"/>
+      <c r="C103" s="157"/>
+      <c r="D103" s="157"/>
+      <c r="E103" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="F103" s="72" t="s">
+      <c r="F103" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="G103" s="72" t="s">
+      <c r="G103" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="H103" s="71" t="s">
+      <c r="H103" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="153"/>
-      <c r="B104" s="152"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="72" t="s">
+      <c r="A104" s="159"/>
+      <c r="B104" s="168"/>
+      <c r="C104" s="157"/>
+      <c r="D104" s="157"/>
+      <c r="E104" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="F104" s="72" t="s">
+      <c r="F104" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="G104" s="72" t="s">
+      <c r="G104" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="H104" s="71" t="s">
+      <c r="H104" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="153"/>
-      <c r="B105" s="152"/>
-      <c r="C105" s="154"/>
-      <c r="D105" s="154"/>
-      <c r="E105" s="72" t="s">
+      <c r="A105" s="159"/>
+      <c r="B105" s="168"/>
+      <c r="C105" s="157"/>
+      <c r="D105" s="157"/>
+      <c r="E105" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F105" s="72" t="s">
+      <c r="F105" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="G105" s="72" t="s">
+      <c r="G105" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="H105" s="71" t="s">
+      <c r="H105" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="153"/>
-      <c r="B106" s="152"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="72" t="s">
+      <c r="A106" s="159"/>
+      <c r="B106" s="168"/>
+      <c r="C106" s="157"/>
+      <c r="D106" s="157"/>
+      <c r="E106" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="F106" s="72" t="s">
+      <c r="F106" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="G106" s="72" t="s">
+      <c r="G106" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="H106" s="71" t="s">
+      <c r="H106" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="153" t="s">
+      <c r="A107" s="159" t="s">
         <v>248</v>
       </c>
-      <c r="B107" s="152" t="s">
+      <c r="B107" s="168" t="s">
         <v>272</v>
       </c>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154" t="s">
+      <c r="C107" s="157"/>
+      <c r="D107" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="72" t="s">
+      <c r="E107" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="F107" s="72" t="s">
+      <c r="F107" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="G107" s="72" t="s">
+      <c r="G107" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="H107" s="71" t="s">
+      <c r="H107" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="153"/>
-      <c r="B108" s="152"/>
-      <c r="C108" s="154"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="72" t="s">
+      <c r="A108" s="159"/>
+      <c r="B108" s="168"/>
+      <c r="C108" s="157"/>
+      <c r="D108" s="157"/>
+      <c r="E108" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="F108" s="72" t="s">
+      <c r="F108" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="G108" s="72" t="s">
+      <c r="G108" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="H108" s="71" t="s">
+      <c r="H108" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="153"/>
-      <c r="B109" s="152"/>
-      <c r="C109" s="154"/>
-      <c r="D109" s="154"/>
-      <c r="E109" s="72" t="s">
+      <c r="A109" s="159"/>
+      <c r="B109" s="168"/>
+      <c r="C109" s="157"/>
+      <c r="D109" s="157"/>
+      <c r="E109" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="F109" s="72" t="s">
+      <c r="F109" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="G109" s="72" t="s">
+      <c r="G109" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="H109" s="71" t="s">
+      <c r="H109" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="153"/>
-      <c r="B110" s="152"/>
-      <c r="C110" s="154"/>
-      <c r="D110" s="154"/>
-      <c r="E110" s="72" t="s">
+      <c r="A110" s="159"/>
+      <c r="B110" s="168"/>
+      <c r="C110" s="157"/>
+      <c r="D110" s="157"/>
+      <c r="E110" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="F110" s="72" t="s">
+      <c r="F110" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="G110" s="72" t="s">
+      <c r="G110" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="H110" s="71" t="s">
+      <c r="H110" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="153"/>
-      <c r="B111" s="152"/>
-      <c r="C111" s="154"/>
-      <c r="D111" s="154"/>
-      <c r="E111" s="72" t="s">
+      <c r="A111" s="159"/>
+      <c r="B111" s="168"/>
+      <c r="C111" s="157"/>
+      <c r="D111" s="157"/>
+      <c r="E111" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F111" s="72" t="s">
+      <c r="F111" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="G111" s="72" t="s">
+      <c r="G111" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="H111" s="71" t="s">
+      <c r="H111" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="153"/>
-      <c r="B112" s="152"/>
-      <c r="C112" s="154"/>
-      <c r="D112" s="154"/>
-      <c r="E112" s="75" t="s">
+      <c r="A112" s="159"/>
+      <c r="B112" s="168"/>
+      <c r="C112" s="157"/>
+      <c r="D112" s="157"/>
+      <c r="E112" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F112" s="72" t="s">
+      <c r="F112" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="G112" s="72" t="s">
+      <c r="G112" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="H112" s="71" t="s">
+      <c r="H112" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="76" t="s">
+      <c r="A113" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="B113" s="77" t="s">
+      <c r="B113" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C113" s="71"/>
-      <c r="D113" s="71" t="s">
+      <c r="C113" s="70"/>
+      <c r="D113" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="78" t="s">
+      <c r="E113" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="F113" s="74" t="s">
+      <c r="F113" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="G113" s="74" t="s">
+      <c r="G113" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="H113" s="71" t="s">
+      <c r="H113" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="76" t="s">
+      <c r="A114" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C114" s="71"/>
-      <c r="D114" s="71" t="s">
+      <c r="C114" s="70"/>
+      <c r="D114" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="79" t="s">
+      <c r="E114" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="F114" s="74" t="s">
+      <c r="F114" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="G114" s="74" t="s">
+      <c r="G114" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="H114" s="71" t="s">
+      <c r="H114" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A115" s="162" t="s">
+      <c r="A115" s="161" t="s">
         <v>343</v>
       </c>
-      <c r="B115" s="160" t="s">
+      <c r="B115" s="163" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="161"/>
-      <c r="D115" s="161" t="s">
+      <c r="C115" s="165"/>
+      <c r="D115" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="E115" s="74" t="s">
+      <c r="E115" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="F115" s="74" t="s">
+      <c r="F115" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="G115" s="74" t="s">
+      <c r="G115" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="H115" s="71" t="s">
+      <c r="H115" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="162"/>
-      <c r="B116" s="160"/>
-      <c r="C116" s="161"/>
-      <c r="D116" s="161"/>
-      <c r="E116" s="74" t="s">
+      <c r="A116" s="161"/>
+      <c r="B116" s="163"/>
+      <c r="C116" s="165"/>
+      <c r="D116" s="165"/>
+      <c r="E116" s="73" t="s">
         <v>318</v>
       </c>
-      <c r="F116" s="74" t="s">
+      <c r="F116" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="G116" s="74" t="s">
+      <c r="G116" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="H116" s="71" t="s">
+      <c r="H116" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="162"/>
-      <c r="B117" s="160"/>
-      <c r="C117" s="161"/>
-      <c r="D117" s="161"/>
-      <c r="E117" s="74" t="s">
+      <c r="A117" s="161"/>
+      <c r="B117" s="163"/>
+      <c r="C117" s="165"/>
+      <c r="D117" s="165"/>
+      <c r="E117" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="F117" s="74" t="s">
+      <c r="F117" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="G117" s="74" t="s">
+      <c r="G117" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="H117" s="71" t="s">
+      <c r="H117" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="162"/>
-      <c r="B118" s="160"/>
-      <c r="C118" s="161"/>
-      <c r="D118" s="161"/>
-      <c r="E118" s="74" t="s">
+      <c r="A118" s="161"/>
+      <c r="B118" s="163"/>
+      <c r="C118" s="165"/>
+      <c r="D118" s="165"/>
+      <c r="E118" s="73" t="s">
         <v>322</v>
       </c>
-      <c r="F118" s="74" t="s">
+      <c r="F118" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="G118" s="74" t="s">
+      <c r="G118" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="H118" s="71" t="s">
+      <c r="H118" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="162"/>
-      <c r="B119" s="160"/>
-      <c r="C119" s="161"/>
-      <c r="D119" s="161"/>
-      <c r="E119" s="74" t="s">
+      <c r="A119" s="161"/>
+      <c r="B119" s="163"/>
+      <c r="C119" s="165"/>
+      <c r="D119" s="165"/>
+      <c r="E119" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="F119" s="74" t="s">
+      <c r="F119" s="73" t="s">
         <v>316</v>
       </c>
-      <c r="G119" s="74" t="s">
+      <c r="G119" s="73" t="s">
         <v>316</v>
       </c>
-      <c r="H119" s="71" t="s">
+      <c r="H119" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A120" s="162" t="s">
+      <c r="A120" s="161" t="s">
         <v>344</v>
       </c>
-      <c r="B120" s="160" t="s">
+      <c r="B120" s="163" t="s">
         <v>320</v>
       </c>
-      <c r="C120" s="161"/>
-      <c r="D120" s="161" t="s">
+      <c r="C120" s="165"/>
+      <c r="D120" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="74" t="s">
+      <c r="E120" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="F120" s="74" t="s">
+      <c r="F120" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="G120" s="74" t="s">
+      <c r="G120" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="H120" s="71" t="s">
+      <c r="H120" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="162"/>
-      <c r="B121" s="160"/>
-      <c r="C121" s="161"/>
-      <c r="D121" s="161"/>
-      <c r="E121" s="74" t="s">
+      <c r="A121" s="161"/>
+      <c r="B121" s="163"/>
+      <c r="C121" s="165"/>
+      <c r="D121" s="165"/>
+      <c r="E121" s="73" t="s">
         <v>318</v>
       </c>
-      <c r="F121" s="74" t="s">
+      <c r="F121" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="G121" s="74" t="s">
+      <c r="G121" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="H121" s="71" t="s">
+      <c r="H121" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="162"/>
-      <c r="B122" s="160"/>
-      <c r="C122" s="161"/>
-      <c r="D122" s="161"/>
-      <c r="E122" s="74" t="s">
+      <c r="A122" s="161"/>
+      <c r="B122" s="163"/>
+      <c r="C122" s="165"/>
+      <c r="D122" s="165"/>
+      <c r="E122" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="F122" s="74" t="s">
+      <c r="F122" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="G122" s="74" t="s">
+      <c r="G122" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="H122" s="71" t="s">
+      <c r="H122" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="162"/>
-      <c r="B123" s="160"/>
-      <c r="C123" s="161"/>
-      <c r="D123" s="161"/>
-      <c r="E123" s="74" t="s">
+      <c r="A123" s="161"/>
+      <c r="B123" s="163"/>
+      <c r="C123" s="165"/>
+      <c r="D123" s="165"/>
+      <c r="E123" s="73" t="s">
         <v>322</v>
       </c>
-      <c r="F123" s="74" t="s">
+      <c r="F123" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="G123" s="74" t="s">
+      <c r="G123" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="H123" s="71" t="s">
+      <c r="H123" s="70" t="s">
         <v>349</v>
       </c>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="163"/>
+      <c r="A124" s="162"/>
       <c r="B124" s="164"/>
-      <c r="C124" s="165"/>
-      <c r="D124" s="165"/>
-      <c r="E124" s="81" t="s">
+      <c r="C124" s="166"/>
+      <c r="D124" s="166"/>
+      <c r="E124" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="F124" s="81" t="s">
+      <c r="F124" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="G124" s="81" t="s">
+      <c r="G124" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="H124" s="80" t="s">
+      <c r="H124" s="79" t="s">
         <v>349</v>
       </c>
       <c r="I124" s="7"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="41"/>
+      <c r="B125" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="D87:D93"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B33:B47"/>
+    <mergeCell ref="C33:C47"/>
+    <mergeCell ref="D33:D47"/>
+    <mergeCell ref="C48:C62"/>
+    <mergeCell ref="D48:D62"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="B48:B62"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="D9:D20"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="A115:A119"/>
     <mergeCell ref="C21:C32"/>
     <mergeCell ref="D21:D32"/>
     <mergeCell ref="A21:A32"/>
@@ -8546,48 +8622,6 @@
     <mergeCell ref="B77:B86"/>
     <mergeCell ref="C77:C86"/>
     <mergeCell ref="D77:D86"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="C9:C20"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="C87:C93"/>
-    <mergeCell ref="D87:D93"/>
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="B33:B47"/>
-    <mergeCell ref="C33:C47"/>
-    <mergeCell ref="D33:D47"/>
-    <mergeCell ref="C48:C62"/>
-    <mergeCell ref="D48:D62"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="B48:B62"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="No Run">
@@ -8614,9 +8648,9 @@
   </sheetPr>
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8633,72 +8667,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="104"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="105">
+      <c r="H1" s="110">
         <v>45590</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="108"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="112"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -8721,16 +8755,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -8753,16 +8787,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -8839,14 +8873,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="127" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -8860,10 +8894,10 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="122"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="128"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="27" t="s">
         <v>133</v>
       </c>
@@ -8875,14 +8909,14 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="127" t="s">
+      <c r="C11" s="139"/>
+      <c r="D11" s="141" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -8896,10 +8930,10 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="128"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="27" t="s">
         <v>133</v>
       </c>
@@ -8911,14 +8945,14 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="135" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="127" t="s">
+      <c r="C13" s="139"/>
+      <c r="D13" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -8932,10 +8966,10 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="122"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="27" t="s">
         <v>135</v>
       </c>
@@ -8947,14 +8981,14 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="127" t="s">
+      <c r="C15" s="139"/>
+      <c r="D15" s="141" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -8968,10 +9002,10 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="122"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="27" t="s">
         <v>135</v>
       </c>
@@ -8983,14 +9017,14 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="127" t="s">
+      <c r="C17" s="139"/>
+      <c r="D17" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -9004,10 +9038,10 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="122"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="27" t="s">
         <v>136</v>
       </c>
@@ -9019,14 +9053,14 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="127" t="s">
+      <c r="C19" s="139"/>
+      <c r="D19" s="141" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -9040,10 +9074,10 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
       <c r="E20" s="27" t="s">
         <v>136</v>
       </c>
@@ -9055,14 +9089,14 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="127" t="s">
+      <c r="C21" s="139"/>
+      <c r="D21" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -9076,10 +9110,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="141"/>
       <c r="E22" s="27" t="s">
         <v>144</v>
       </c>
@@ -9091,14 +9125,14 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="127" t="s">
+      <c r="C23" s="139"/>
+      <c r="D23" s="141" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="26" t="s">
@@ -9112,10 +9146,10 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="122"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="127"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="141"/>
       <c r="E24" s="27" t="s">
         <v>144</v>
       </c>
@@ -9127,14 +9161,14 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="127" t="s">
+      <c r="C25" s="139"/>
+      <c r="D25" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -9148,10 +9182,10 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="127"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="27" t="s">
         <v>145</v>
       </c>
@@ -9163,14 +9197,14 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="127" t="s">
+      <c r="C27" s="139"/>
+      <c r="D27" s="141" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -9184,10 +9218,10 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="27" t="s">
         <v>145</v>
       </c>
@@ -9199,14 +9233,14 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="127" t="s">
+      <c r="C29" s="152"/>
+      <c r="D29" s="141" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -9220,10 +9254,10 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="121"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="127"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="26" t="s">
         <v>142</v>
       </c>
@@ -9235,10 +9269,10 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="121"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="127"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="26" t="s">
         <v>148</v>
       </c>
@@ -9250,10 +9284,10 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="121"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="127"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="26" t="s">
         <v>163</v>
       </c>
@@ -9265,10 +9299,10 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="121"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="127"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="26" t="s">
         <v>187</v>
       </c>
@@ -9280,14 +9314,14 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="135" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="127" t="s">
+      <c r="C34" s="152"/>
+      <c r="D34" s="141" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -9301,10 +9335,10 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="121"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="127"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="26" t="s">
         <v>142</v>
       </c>
@@ -9316,10 +9350,10 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="121"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="127"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="26" t="s">
         <v>148</v>
       </c>
@@ -9331,10 +9365,10 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="121"/>
-      <c r="B37" s="123"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="127"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="26" t="s">
         <v>163</v>
       </c>
@@ -9346,10 +9380,10 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="121"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="127"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="26" t="s">
         <v>187</v>
       </c>
@@ -9361,14 +9395,14 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="135" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="139" t="s">
+      <c r="C39" s="149"/>
+      <c r="D39" s="151" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="28" t="s">
@@ -9381,11 +9415,11 @@
       <c r="H39" s="4"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="122"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="139"/>
+    <row r="40" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="136"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="28" t="s">
         <v>161</v>
       </c>
@@ -9397,14 +9431,14 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="135" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="139" t="s">
+      <c r="C41" s="149"/>
+      <c r="D41" s="151" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="28" t="s">
@@ -9417,11 +9451,11 @@
       <c r="H41" s="4"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="122"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="139"/>
+    <row r="42" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="136"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="28" t="s">
         <v>161</v>
       </c>
@@ -9434,6 +9468,60 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -9446,60 +9534,6 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Failed">
@@ -9523,8 +9557,8 @@
   </sheetPr>
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -9542,72 +9576,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="104"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="105">
+      <c r="H1" s="110">
         <v>45590</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="108"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="112"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="105" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -9630,16 +9664,16 @@
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -9662,16 +9696,16 @@
       <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -9748,14 +9782,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="169" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="168" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="170" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -9773,10 +9807,10 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="122"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="127"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="35" t="s">
         <v>295</v>
       </c>
@@ -9792,10 +9826,10 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="122"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="141"/>
       <c r="E11" s="35" t="s">
         <v>301</v>
       </c>
@@ -9811,10 +9845,10 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="35" t="s">
         <v>303</v>
       </c>
@@ -9830,10 +9864,10 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="122"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="35" t="s">
         <v>305</v>
       </c>
@@ -9849,10 +9883,10 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="122"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="34" t="s">
         <v>306</v>
       </c>
@@ -9868,10 +9902,10 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="34" t="s">
         <v>307</v>
       </c>
@@ -9887,10 +9921,10 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="122"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="34" t="s">
         <v>308</v>
       </c>
@@ -9906,10 +9940,10 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="122"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="34" t="s">
         <v>309</v>
       </c>
@@ -9925,10 +9959,10 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="122"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="34" t="s">
         <v>310</v>
       </c>
@@ -9944,10 +9978,10 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="122"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
       <c r="E19" s="36" t="s">
         <v>311</v>
       </c>
@@ -9963,14 +9997,14 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="167" t="s">
+      <c r="A20" s="169" t="s">
         <v>376</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="168" t="s">
+      <c r="C20" s="139"/>
+      <c r="D20" s="170" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="35" t="s">
@@ -9988,10 +10022,10 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
       <c r="E21" s="35" t="s">
         <v>295</v>
       </c>
@@ -10007,10 +10041,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="141"/>
       <c r="E22" s="35" t="s">
         <v>301</v>
       </c>
@@ -10026,10 +10060,10 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="122"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
       <c r="E23" s="35" t="s">
         <v>303</v>
       </c>
@@ -10045,10 +10079,10 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="122"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="127"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="141"/>
       <c r="E24" s="35" t="s">
         <v>305</v>
       </c>
@@ -10064,10 +10098,10 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="122"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="127"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="34" t="s">
         <v>306</v>
       </c>
@@ -10083,10 +10117,10 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="127"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="34" t="s">
         <v>307</v>
       </c>
@@ -10102,10 +10136,10 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="122"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="127"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="34" t="s">
         <v>308</v>
       </c>
@@ -10121,10 +10155,10 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="34" t="s">
         <v>309</v>
       </c>
@@ -10140,10 +10174,10 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="122"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="34" t="s">
         <v>310</v>
       </c>
@@ -10159,10 +10193,10 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="122"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="127"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="36" t="s">
         <v>311</v>
       </c>
@@ -10179,14 +10213,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="C9:C19"/>
-    <mergeCell ref="D9:D19"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="D20:D30"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
@@ -10197,6 +10223,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="C9:C19"/>
+    <mergeCell ref="D9:D19"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="D20:D30"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
